--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -17,6 +17,9 @@
     <sheet name="SpineEval" sheetId="3" r:id="rId3"/>
     <sheet name="FTEval" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SpineEval!$A$1:$M$33</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="2">
   <si>
     <t>Fattree</t>
   </si>
@@ -794,10 +797,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -807,40 +810,40 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="C1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D1">
         <v>0.01</v>
       </c>
       <c r="E1">
-        <v>2.8702602734973801E-2</v>
+        <v>2.9528316793724401E-2</v>
       </c>
       <c r="F1">
-        <v>4.3499872138760297E-2</v>
+        <v>4.3635777225230099E-2</v>
       </c>
       <c r="G1">
-        <v>0.62500518445189202</v>
+        <v>0.53690662972800995</v>
       </c>
       <c r="H1">
-        <v>0.89864248290924498</v>
+        <v>0.90789116393457603</v>
       </c>
       <c r="I1">
-        <v>0.88863312222553703</v>
+        <v>0.898600927960998</v>
       </c>
       <c r="J1">
-        <v>0.88236394234929605</v>
+        <v>0.89283420066072705</v>
       </c>
       <c r="K1">
-        <v>171.45570000000001</v>
+        <v>71.188599999999994</v>
       </c>
       <c r="L1">
-        <v>571.52059999999994</v>
+        <v>190.5069</v>
       </c>
       <c r="M1">
-        <v>674.7953</v>
+        <v>269.71710000000002</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -848,40 +851,40 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="C2">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D2">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E2">
-        <v>1.34238046841011E-2</v>
+        <v>1.5095763217355901E-2</v>
       </c>
       <c r="F2">
-        <v>2.0712400689315701E-2</v>
+        <v>2.37917770484916E-2</v>
       </c>
       <c r="G2">
-        <v>6.3217551624099297E-2</v>
+        <v>8.5080469405617906E-2</v>
       </c>
       <c r="H2">
-        <v>0.89864248290924498</v>
+        <v>0.90789116393457603</v>
       </c>
       <c r="I2">
-        <v>0.88863312222553703</v>
+        <v>0.898600927960998</v>
       </c>
       <c r="J2">
-        <v>0.88236394234929605</v>
+        <v>0.89283420066072705</v>
       </c>
       <c r="K2">
-        <v>171.45570000000001</v>
+        <v>71.188599999999994</v>
       </c>
       <c r="L2">
-        <v>571.52059999999994</v>
+        <v>190.5069</v>
       </c>
       <c r="M2">
-        <v>674.7953</v>
+        <v>269.71710000000002</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
@@ -889,40 +892,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D3">
         <v>0.01</v>
       </c>
       <c r="E3">
-        <v>7.1200076693508293E-2</v>
+        <v>2.21569537576446E-2</v>
       </c>
       <c r="F3">
-        <v>0.25806800115206102</v>
+        <v>1.97979258392172E-2</v>
       </c>
       <c r="G3">
-        <v>1.42198257352748</v>
+        <v>9.2336288185576001E-2</v>
       </c>
       <c r="H3">
-        <v>0.804124771880106</v>
+        <v>0.93120417282434098</v>
       </c>
       <c r="I3">
-        <v>0.79164039154486998</v>
+        <v>0.93640189687242603</v>
       </c>
       <c r="J3">
-        <v>0.78045511032482495</v>
+        <v>0.92773896527419697</v>
       </c>
       <c r="K3">
-        <v>228.61340000000001</v>
+        <v>101.2696</v>
       </c>
       <c r="L3">
-        <v>896.36360000000002</v>
+        <v>179.477</v>
       </c>
       <c r="M3">
-        <v>788.11900000000003</v>
+        <v>319.85019999999997</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
@@ -930,40 +933,40 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E4">
-        <v>3.3518500389906503E-2</v>
+        <v>1.0964109663741801E-2</v>
       </c>
       <c r="F4">
-        <v>0.12609216796943601</v>
+        <v>1.0771926195830801E-2</v>
       </c>
       <c r="G4">
-        <v>0.53193325976422901</v>
+        <v>4.7107267760531597E-2</v>
       </c>
       <c r="H4">
-        <v>0.804124771880106</v>
+        <v>0.93120417282434098</v>
       </c>
       <c r="I4">
-        <v>0.79164039154486998</v>
+        <v>0.93640189687242603</v>
       </c>
       <c r="J4">
-        <v>0.78045511032482495</v>
+        <v>0.92773896527419697</v>
       </c>
       <c r="K4">
-        <v>228.61340000000001</v>
+        <v>101.2696</v>
       </c>
       <c r="L4">
-        <v>896.36360000000002</v>
+        <v>179.477</v>
       </c>
       <c r="M4">
-        <v>788.11900000000003</v>
+        <v>319.85019999999997</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
@@ -971,40 +974,40 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="C5">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D5">
         <v>0.01</v>
       </c>
       <c r="E5">
-        <v>5.3668096297598902E-2</v>
+        <v>1.61574930403935E-2</v>
       </c>
       <c r="F5">
-        <v>0.160927755394036</v>
+        <v>8.7899745047728597E-3</v>
       </c>
       <c r="G5">
-        <v>1.32762523671324</v>
+        <v>8.0135655168889097E-2</v>
       </c>
       <c r="H5">
-        <v>0.82829279808012002</v>
+        <v>0.94556403183773696</v>
       </c>
       <c r="I5">
-        <v>0.81152521300079095</v>
+        <v>0.95977501788581099</v>
       </c>
       <c r="J5">
-        <v>0.80337108154547698</v>
+        <v>0.94901974799994104</v>
       </c>
       <c r="K5">
-        <v>212.56559999999999</v>
+        <v>58.121299999999998</v>
       </c>
       <c r="L5">
-        <v>979.6345</v>
+        <v>138.36879999999999</v>
       </c>
       <c r="M5">
-        <v>839.23239999999998</v>
+        <v>199.53039999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -1012,40 +1015,40 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="C6">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D6">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E6">
-        <v>2.4163051981252098E-2</v>
+        <v>9.1627162319032202E-3</v>
       </c>
       <c r="F6">
-        <v>7.8412111461085399E-2</v>
+        <v>4.9191747021992598E-3</v>
       </c>
       <c r="G6">
-        <v>0.50667156657115298</v>
+        <v>2.9374980966783801E-2</v>
       </c>
       <c r="H6">
-        <v>0.82829279808012002</v>
+        <v>0.94556403183773696</v>
       </c>
       <c r="I6">
-        <v>0.81152521300079095</v>
+        <v>0.95977501788581099</v>
       </c>
       <c r="J6">
-        <v>0.80337108154547698</v>
+        <v>0.94901974799994104</v>
       </c>
       <c r="K6">
-        <v>212.56559999999999</v>
+        <v>58.121299999999998</v>
       </c>
       <c r="L6">
-        <v>979.6345</v>
+        <v>138.36879999999999</v>
       </c>
       <c r="M6">
-        <v>839.23239999999998</v>
+        <v>199.53039999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -1053,40 +1056,40 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="C7">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D7">
         <v>0.01</v>
       </c>
       <c r="E7">
-        <v>4.2243333959473599E-2</v>
+        <v>1.29605975256591E-2</v>
       </c>
       <c r="F7">
-        <v>0.115234346600197</v>
+        <v>4.38405380971522E-3</v>
       </c>
       <c r="G7">
-        <v>0.69356950159469999</v>
+        <v>7.3425190780416705E-2</v>
       </c>
       <c r="H7">
-        <v>0.847661986221386</v>
+        <v>0.95508961059366304</v>
       </c>
       <c r="I7">
-        <v>0.82930438148212005</v>
+        <v>0.97105464877162595</v>
       </c>
       <c r="J7">
-        <v>0.82292519421859101</v>
+        <v>0.96460702893788897</v>
       </c>
       <c r="K7">
-        <v>209.58619999999999</v>
+        <v>52.138399999999997</v>
       </c>
       <c r="L7">
-        <v>912.42740000000003</v>
+        <v>127.3399</v>
       </c>
       <c r="M7">
-        <v>890.34050000000002</v>
+        <v>173.46080000000001</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -1094,40 +1097,40 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="C8">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D8">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E8">
-        <v>2.1723136489924699E-2</v>
+        <v>7.65357011432387E-3</v>
       </c>
       <c r="F8">
-        <v>5.52789272015662E-2</v>
+        <v>2.8014195118506099E-3</v>
       </c>
       <c r="G8">
-        <v>0.62144664102209701</v>
+        <v>2.2185668181804299E-2</v>
       </c>
       <c r="H8">
-        <v>0.847661986221386</v>
+        <v>0.95508961059366304</v>
       </c>
       <c r="I8">
-        <v>0.82930438148212005</v>
+        <v>0.97105464877162595</v>
       </c>
       <c r="J8">
-        <v>0.82292519421859101</v>
+        <v>0.96460702893788897</v>
       </c>
       <c r="K8">
-        <v>209.58619999999999</v>
+        <v>52.138399999999997</v>
       </c>
       <c r="L8">
-        <v>912.42740000000003</v>
+        <v>127.3399</v>
       </c>
       <c r="M8">
-        <v>890.34050000000002</v>
+        <v>173.46080000000001</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -1135,40 +1138,40 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="C9">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="D9">
         <v>0.01</v>
       </c>
       <c r="E9">
-        <v>3.7428006068012401E-2</v>
+        <v>1.1064027973968899E-2</v>
       </c>
       <c r="F9">
-        <v>8.6421380330788097E-2</v>
+        <v>1.56812095534246E-3</v>
       </c>
       <c r="G9">
-        <v>0.88473013666557598</v>
+        <v>5.8831935673530199E-2</v>
       </c>
       <c r="H9">
-        <v>0.86331421083349102</v>
+        <v>0.96055782828839897</v>
       </c>
       <c r="I9">
-        <v>0.84556299620262299</v>
+        <v>0.97823275636822504</v>
       </c>
       <c r="J9">
-        <v>0.83952020874196998</v>
+        <v>0.97455511628248503</v>
       </c>
       <c r="K9">
-        <v>205.5778</v>
+        <v>54.143999999999998</v>
       </c>
       <c r="L9">
-        <v>882.37779999999998</v>
+        <v>94.250799999999998</v>
       </c>
       <c r="M9">
-        <v>945.48540000000003</v>
+        <v>154.44059999999999</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
@@ -1176,40 +1179,40 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="C10">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="D10">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E10">
-        <v>1.85409503019658E-2</v>
+        <v>5.3228145715084902E-3</v>
       </c>
       <c r="F10">
-        <v>4.2441697909029297E-2</v>
+        <v>1.0907849784256201E-3</v>
       </c>
       <c r="G10">
-        <v>0.38055064127057597</v>
+        <v>5.0728758742363399E-2</v>
       </c>
       <c r="H10">
-        <v>0.86331421083349102</v>
+        <v>0.96055782828839897</v>
       </c>
       <c r="I10">
-        <v>0.84556299620262299</v>
+        <v>0.97823275636822504</v>
       </c>
       <c r="J10">
-        <v>0.83952020874196998</v>
+        <v>0.97455511628248503</v>
       </c>
       <c r="K10">
-        <v>205.5778</v>
+        <v>54.143999999999998</v>
       </c>
       <c r="L10">
-        <v>882.37779999999998</v>
+        <v>94.250799999999998</v>
       </c>
       <c r="M10">
-        <v>945.48540000000003</v>
+        <v>154.44059999999999</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
@@ -1217,40 +1220,40 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="C11">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D11">
         <v>0.01</v>
       </c>
       <c r="E11">
-        <v>3.4058246813298297E-2</v>
+        <v>4.6789209563346597E-2</v>
       </c>
       <c r="F11">
-        <v>6.7303626354405496E-2</v>
+        <v>0.111318439287843</v>
       </c>
       <c r="G11">
-        <v>0.88647538130671799</v>
+        <v>1.40602630355248</v>
       </c>
       <c r="H11">
-        <v>0.876893155878403</v>
+        <v>0.85283563659455497</v>
       </c>
       <c r="I11">
-        <v>0.86079158519292898</v>
+        <v>0.83530153346261804</v>
       </c>
       <c r="J11">
-        <v>0.85485566787607903</v>
+        <v>0.82905422148361196</v>
       </c>
       <c r="K11">
-        <v>226.6046</v>
+        <v>121.32040000000001</v>
       </c>
       <c r="L11">
-        <v>871.34730000000002</v>
+        <v>388.03359999999998</v>
       </c>
       <c r="M11">
-        <v>930.47439999999995</v>
+        <v>393.01659999999998</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -1258,40 +1261,40 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="C12">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D12">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E12">
-        <v>1.65705852683747E-2</v>
+        <v>2.0438074314110599E-2</v>
       </c>
       <c r="F12">
-        <v>3.2384063189438102E-2</v>
+        <v>5.6606628615974097E-2</v>
       </c>
       <c r="G12">
-        <v>0.62776864031170398</v>
+        <v>0.58453776479601205</v>
       </c>
       <c r="H12">
-        <v>0.876893155878403</v>
+        <v>0.85283563659455497</v>
       </c>
       <c r="I12">
-        <v>0.86079158519292898</v>
+        <v>0.83530153346261804</v>
       </c>
       <c r="J12">
-        <v>0.85485566787607903</v>
+        <v>0.82905422148361196</v>
       </c>
       <c r="K12">
-        <v>226.6046</v>
+        <v>121.32040000000001</v>
       </c>
       <c r="L12">
-        <v>871.34730000000002</v>
+        <v>388.03359999999998</v>
       </c>
       <c r="M12">
-        <v>930.47439999999995</v>
+        <v>393.01659999999998</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -1299,40 +1302,40 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="C13">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D13">
         <v>0.01</v>
       </c>
       <c r="E13">
-        <v>9.36245969277201E-2</v>
+        <v>3.8157134542106501E-2</v>
       </c>
       <c r="F13">
-        <v>0.33014516113305198</v>
+        <v>6.5857365476892402E-2</v>
       </c>
       <c r="G13">
-        <v>1.79358083733303</v>
+        <v>0.28116347580710499</v>
       </c>
       <c r="H13">
-        <v>0.79030365367493105</v>
+        <v>0.880907053986695</v>
       </c>
       <c r="I13">
-        <v>0.78007642527078802</v>
+        <v>0.86563909474287504</v>
       </c>
       <c r="J13">
-        <v>0.76752763939490198</v>
+        <v>0.85989471731537903</v>
       </c>
       <c r="K13">
-        <v>282.78309999999999</v>
+        <v>107.285</v>
       </c>
       <c r="L13">
-        <v>1155.1022</v>
+        <v>377.03190000000001</v>
       </c>
       <c r="M13">
-        <v>971.58330000000001</v>
+        <v>432.15</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
@@ -1340,40 +1343,40 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="C14">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D14">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E14">
-        <v>4.45956957316163E-2</v>
+        <v>2.0675138957853199E-2</v>
       </c>
       <c r="F14">
-        <v>0.16341263049053301</v>
+        <v>3.3633770860438998E-2</v>
       </c>
       <c r="G14">
-        <v>1.17525886857874</v>
+        <v>0.185210997354812</v>
       </c>
       <c r="H14">
-        <v>0.79030365367493105</v>
+        <v>0.880907053986695</v>
       </c>
       <c r="I14">
-        <v>0.78007642527078802</v>
+        <v>0.86563909474287504</v>
       </c>
       <c r="J14">
-        <v>0.76752763939490198</v>
+        <v>0.85989471731537903</v>
       </c>
       <c r="K14">
-        <v>282.78309999999999</v>
+        <v>107.285</v>
       </c>
       <c r="L14">
-        <v>1155.1022</v>
+        <v>377.03190000000001</v>
       </c>
       <c r="M14">
-        <v>971.58330000000001</v>
+        <v>432.15</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
@@ -1381,40 +1384,40 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="C15">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D15">
         <v>0.01</v>
       </c>
       <c r="E15">
-        <v>6.3618214350161795E-2</v>
+        <v>2.7025406966638299E-2</v>
       </c>
       <c r="F15">
-        <v>0.20841351021250201</v>
+        <v>4.1678965466541901E-2</v>
       </c>
       <c r="G15">
-        <v>0.98481970657656204</v>
+        <v>0.28428227095908198</v>
       </c>
       <c r="H15">
-        <v>0.81267545983368195</v>
+        <v>0.90125361991556996</v>
       </c>
       <c r="I15">
-        <v>0.79826121212776602</v>
+        <v>0.891446059160797</v>
       </c>
       <c r="J15">
-        <v>0.78823947368153902</v>
+        <v>0.88531091507861503</v>
       </c>
       <c r="K15">
-        <v>289.77120000000002</v>
+        <v>117.3133</v>
       </c>
       <c r="L15">
-        <v>1241.3031000000001</v>
+        <v>348.92869999999999</v>
       </c>
       <c r="M15">
-        <v>1053.8036999999999</v>
+        <v>427.10500000000002</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
@@ -1422,40 +1425,40 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="C16">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D16">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E16">
-        <v>3.0918358145050399E-2</v>
+        <v>1.34578976264504E-2</v>
       </c>
       <c r="F16">
-        <v>0.103394663934092</v>
+        <v>2.0890970638864598E-2</v>
       </c>
       <c r="G16">
-        <v>0.43991898082007302</v>
+        <v>8.0307066956610607E-2</v>
       </c>
       <c r="H16">
-        <v>0.81267545983368195</v>
+        <v>0.90125361991556996</v>
       </c>
       <c r="I16">
-        <v>0.79826121212776602</v>
+        <v>0.891446059160797</v>
       </c>
       <c r="J16">
-        <v>0.78823947368153902</v>
+        <v>0.88531091507861503</v>
       </c>
       <c r="K16">
-        <v>289.77120000000002</v>
+        <v>117.3133</v>
       </c>
       <c r="L16">
-        <v>1241.3031000000001</v>
+        <v>348.92869999999999</v>
       </c>
       <c r="M16">
-        <v>1053.8036999999999</v>
+        <v>427.10500000000002</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
@@ -1463,40 +1466,40 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="C17">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D17">
         <v>0.01</v>
       </c>
       <c r="E17">
-        <v>5.1731420642063798E-2</v>
+        <v>2.39883374639989E-2</v>
       </c>
       <c r="F17">
-        <v>0.14966913795916301</v>
+        <v>2.9074514947082401E-2</v>
       </c>
       <c r="G17">
-        <v>1.57242667296362</v>
+        <v>0.73214549571240095</v>
       </c>
       <c r="H17">
-        <v>0.83068025199710505</v>
+        <v>0.91553205161586804</v>
       </c>
       <c r="I17">
-        <v>0.81355754768104804</v>
+        <v>0.91400043836056</v>
       </c>
       <c r="J17">
-        <v>0.80572978688571095</v>
+        <v>0.90616651703852302</v>
       </c>
       <c r="K17">
-        <v>248.66069999999999</v>
+        <v>107.2782</v>
       </c>
       <c r="L17">
-        <v>1216.2367999999999</v>
+        <v>332.85809999999998</v>
       </c>
       <c r="M17">
-        <v>1075.8621000000001</v>
+        <v>447.21769999999998</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
@@ -1504,40 +1507,40 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="C18">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D18">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E18">
-        <v>2.55223372506483E-2</v>
+        <v>1.24640862580841E-2</v>
       </c>
       <c r="F18">
-        <v>7.3662167781067503E-2</v>
+        <v>1.46560323804033E-2</v>
       </c>
       <c r="G18">
-        <v>0.60363096709191499</v>
+        <v>0.28149404415608398</v>
       </c>
       <c r="H18">
-        <v>0.83068025199710505</v>
+        <v>0.91553205161586804</v>
       </c>
       <c r="I18">
-        <v>0.81355754768104804</v>
+        <v>0.91400043836056</v>
       </c>
       <c r="J18">
-        <v>0.80572978688571095</v>
+        <v>0.90616651703852302</v>
       </c>
       <c r="K18">
-        <v>248.66069999999999</v>
+        <v>107.2782</v>
       </c>
       <c r="L18">
-        <v>1216.2367999999999</v>
+        <v>332.85809999999998</v>
       </c>
       <c r="M18">
-        <v>1075.8621000000001</v>
+        <v>447.21769999999998</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
@@ -1545,40 +1548,40 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="C19">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="D19">
         <v>0.01</v>
       </c>
       <c r="E19">
-        <v>4.2851335794994401E-2</v>
+        <v>2.1573986796571201E-2</v>
       </c>
       <c r="F19">
-        <v>0.114323262384534</v>
+        <v>2.0647866822296398E-2</v>
       </c>
       <c r="G19">
-        <v>1.19088649813362</v>
+        <v>0.60447311555406302</v>
       </c>
       <c r="H19">
-        <v>0.84626511331228105</v>
+        <v>0.92738674152283396</v>
       </c>
       <c r="I19">
-        <v>0.82782935113206702</v>
+        <v>0.93270531608667395</v>
       </c>
       <c r="J19">
-        <v>0.82119106541452003</v>
+        <v>0.9230825379298</v>
       </c>
       <c r="K19">
-        <v>253.6748</v>
+        <v>113.3013</v>
       </c>
       <c r="L19">
-        <v>1213.2295999999999</v>
+        <v>314.83089999999999</v>
       </c>
       <c r="M19">
-        <v>1143.0413000000001</v>
+        <v>418.15179999999998</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
@@ -1586,40 +1589,40 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="C20">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="D20">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E20">
-        <v>2.2980966245292202E-2</v>
+        <v>9.8034093382399906E-3</v>
       </c>
       <c r="F20">
-        <v>5.5978268113606101E-2</v>
+        <v>1.0252448581185699E-2</v>
       </c>
       <c r="G20">
-        <v>0.43656542437016699</v>
+        <v>0.3770381447283</v>
       </c>
       <c r="H20">
-        <v>0.84626511331228105</v>
+        <v>0.92738674152283396</v>
       </c>
       <c r="I20">
-        <v>0.82782935113206702</v>
+        <v>0.93270531608667395</v>
       </c>
       <c r="J20">
-        <v>0.82119106541452003</v>
+        <v>0.9230825379298</v>
       </c>
       <c r="K20">
-        <v>253.6748</v>
+        <v>113.3013</v>
       </c>
       <c r="L20">
-        <v>1213.2295999999999</v>
+        <v>314.83089999999999</v>
       </c>
       <c r="M20">
-        <v>1143.0413000000001</v>
+        <v>418.15179999999998</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
@@ -1627,40 +1630,40 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="C21">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D21">
         <v>0.01</v>
       </c>
       <c r="E21">
-        <v>3.9219820303594999E-2</v>
+        <v>5.9912775369660103E-2</v>
       </c>
       <c r="F21">
-        <v>9.0834200770320894E-2</v>
+        <v>0.18368985451375</v>
       </c>
       <c r="G21">
-        <v>0.82181437996934203</v>
+        <v>1.03244460804444</v>
       </c>
       <c r="H21">
-        <v>0.859199778121708</v>
+        <v>0.82256541500215097</v>
       </c>
       <c r="I21">
-        <v>0.84081590346192803</v>
+        <v>0.80726977852086301</v>
       </c>
       <c r="J21">
-        <v>0.83460005648287805</v>
+        <v>0.79828449084209296</v>
       </c>
       <c r="K21">
-        <v>270.71929999999998</v>
+        <v>149.42850000000001</v>
       </c>
       <c r="L21">
-        <v>1164.0980999999999</v>
+        <v>632.68380000000002</v>
       </c>
       <c r="M21">
-        <v>1185.1527000000001</v>
+        <v>593.54830000000004</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
@@ -1668,40 +1671,40 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="C22">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D22">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E22">
-        <v>2.0860323903394699E-2</v>
+        <v>3.1879859021997102E-2</v>
       </c>
       <c r="F22">
-        <v>4.4553489707046701E-2</v>
+        <v>9.2140723925525803E-2</v>
       </c>
       <c r="G22">
-        <v>0.70275498983597495</v>
+        <v>0.435470878913371</v>
       </c>
       <c r="H22">
-        <v>0.859199778121708</v>
+        <v>0.82256541500215097</v>
       </c>
       <c r="I22">
-        <v>0.84081590346192803</v>
+        <v>0.80726977852086301</v>
       </c>
       <c r="J22">
-        <v>0.83460005648287805</v>
+        <v>0.79828449084209296</v>
       </c>
       <c r="K22">
-        <v>270.71929999999998</v>
+        <v>149.42850000000001</v>
       </c>
       <c r="L22">
-        <v>1164.0980999999999</v>
+        <v>632.68380000000002</v>
       </c>
       <c r="M22">
-        <v>1185.1527000000001</v>
+        <v>593.54830000000004</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
@@ -1709,40 +1712,40 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="C23">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D23">
         <v>0.01</v>
       </c>
       <c r="E23">
-        <v>9.9485665719020205E-2</v>
+        <v>4.2437768602515601E-2</v>
       </c>
       <c r="F23">
-        <v>0.39911865316642903</v>
+        <v>0.11231236253126201</v>
       </c>
       <c r="G23">
-        <v>2.0467876202004098</v>
+        <v>0.56915121455626105</v>
       </c>
       <c r="H23">
-        <v>0.78107672095339797</v>
+        <v>0.84927692028016799</v>
       </c>
       <c r="I23">
-        <v>0.77216457594716903</v>
+        <v>0.83115117843226105</v>
       </c>
       <c r="J23">
-        <v>0.75874306463430996</v>
+        <v>0.82423743040029795</v>
       </c>
       <c r="K23">
-        <v>312.84199999999998</v>
+        <v>174.4639</v>
       </c>
       <c r="L23">
-        <v>1421.7911999999999</v>
+        <v>622.62310000000002</v>
       </c>
       <c r="M23">
-        <v>1152.0654999999999</v>
+        <v>632.71720000000005</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
@@ -1750,40 +1753,40 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="C24">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D24">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E24">
-        <v>5.6431384970384899E-2</v>
+        <v>2.3691239562319201E-2</v>
       </c>
       <c r="F24">
-        <v>0.19986236400492199</v>
+        <v>5.6303314168621499E-2</v>
       </c>
       <c r="G24">
-        <v>0.89613980238783197</v>
+        <v>0.42373942600824399</v>
       </c>
       <c r="H24">
-        <v>0.78107672095339797</v>
+        <v>0.84927692028016799</v>
       </c>
       <c r="I24">
-        <v>0.77216457594716903</v>
+        <v>0.83115117843226105</v>
       </c>
       <c r="J24">
-        <v>0.75874306463430996</v>
+        <v>0.82423743040029795</v>
       </c>
       <c r="K24">
-        <v>312.84199999999998</v>
+        <v>174.4639</v>
       </c>
       <c r="L24">
-        <v>1421.7911999999999</v>
+        <v>622.62310000000002</v>
       </c>
       <c r="M24">
-        <v>1152.0654999999999</v>
+        <v>632.71720000000005</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
@@ -1791,40 +1794,40 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="C25">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D25">
         <v>0.01</v>
       </c>
       <c r="E25">
-        <v>7.6113449230818503E-2</v>
+        <v>3.6322892940724001E-2</v>
       </c>
       <c r="F25">
-        <v>0.25299419758417002</v>
+        <v>7.8353721858904296E-2</v>
       </c>
       <c r="G25">
-        <v>2.1031306477054499</v>
+        <v>1.05166994699939</v>
       </c>
       <c r="H25">
-        <v>0.801768457460458</v>
+        <v>0.86944596473485902</v>
       </c>
       <c r="I25">
-        <v>0.78931941484318702</v>
+        <v>0.85201261157586305</v>
       </c>
       <c r="J25">
-        <v>0.77806528103931505</v>
+        <v>0.84627573784402699</v>
       </c>
       <c r="K25">
-        <v>314.8383</v>
+        <v>173.46109999999999</v>
       </c>
       <c r="L25">
-        <v>1484.9313</v>
+        <v>623.65930000000003</v>
       </c>
       <c r="M25">
-        <v>1236.3088</v>
+        <v>668.77930000000003</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
@@ -1832,40 +1835,40 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="C26">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D26">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E26">
-        <v>3.7446311784138098E-2</v>
+        <v>1.96346142927032E-2</v>
       </c>
       <c r="F26">
-        <v>0.12664856073305999</v>
+        <v>3.9986276345688299E-2</v>
       </c>
       <c r="G26">
-        <v>0.98362054161148404</v>
+        <v>0.26512682173963997</v>
       </c>
       <c r="H26">
-        <v>0.801768457460458</v>
+        <v>0.86944596473485902</v>
       </c>
       <c r="I26">
-        <v>0.78931941484318702</v>
+        <v>0.85201261157586305</v>
       </c>
       <c r="J26">
-        <v>0.77806528103931505</v>
+        <v>0.84627573784402699</v>
       </c>
       <c r="K26">
-        <v>314.8383</v>
+        <v>173.46109999999999</v>
       </c>
       <c r="L26">
-        <v>1484.9313</v>
+        <v>623.65930000000003</v>
       </c>
       <c r="M26">
-        <v>1236.3088</v>
+        <v>668.77930000000003</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
@@ -1873,40 +1876,40 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="C27">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D27">
         <v>0.01</v>
       </c>
       <c r="E27">
-        <v>6.0005986189796801E-2</v>
+        <v>3.1646785159264501E-2</v>
       </c>
       <c r="F27">
-        <v>0.18263918510764099</v>
+        <v>5.7448032883763302E-2</v>
       </c>
       <c r="G27">
-        <v>1.2567557555734701</v>
+        <v>0.35090205632400701</v>
       </c>
       <c r="H27">
-        <v>0.81878695225254405</v>
+        <v>0.88582238239894395</v>
       </c>
       <c r="I27">
-        <v>0.80324147824209902</v>
+        <v>0.87166132923646</v>
       </c>
       <c r="J27">
-        <v>0.79422788913411801</v>
+        <v>0.86557218672545899</v>
       </c>
       <c r="K27">
-        <v>303.80880000000002</v>
+        <v>178.47749999999999</v>
       </c>
       <c r="L27">
-        <v>1496.0134</v>
+        <v>590.57150000000001</v>
       </c>
       <c r="M27">
-        <v>1303.4677999999999</v>
+        <v>667.7758</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
@@ -1914,40 +1917,40 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="C28">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D28">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E28">
-        <v>2.9913193131155699E-2</v>
+        <v>1.39491934431619E-2</v>
       </c>
       <c r="F28">
-        <v>9.1422257379055405E-2</v>
+        <v>2.8733033431750099E-2</v>
       </c>
       <c r="G28">
-        <v>0.45092243680600502</v>
+        <v>0.231228637125798</v>
       </c>
       <c r="H28">
-        <v>0.81878695225254405</v>
+        <v>0.88582238239894395</v>
       </c>
       <c r="I28">
-        <v>0.80324147824209902</v>
+        <v>0.87166132923646</v>
       </c>
       <c r="J28">
-        <v>0.79422788913411801</v>
+        <v>0.86557218672545899</v>
       </c>
       <c r="K28">
-        <v>303.80880000000002</v>
+        <v>178.47749999999999</v>
       </c>
       <c r="L28">
-        <v>1496.0134</v>
+        <v>590.57150000000001</v>
       </c>
       <c r="M28">
-        <v>1303.4677999999999</v>
+        <v>667.7758</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
@@ -1955,40 +1958,40 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="C29">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="D29">
         <v>0.01</v>
       </c>
       <c r="E29">
-        <v>5.0747775578849699E-2</v>
+        <v>2.86187508271032E-2</v>
       </c>
       <c r="F29">
-        <v>0.141989456629493</v>
+        <v>4.4006329922519398E-2</v>
       </c>
       <c r="G29">
-        <v>0.98478513090321196</v>
+        <v>0.86688146890165996</v>
       </c>
       <c r="H29">
-        <v>0.83362889118126604</v>
+        <v>0.89890637572667198</v>
       </c>
       <c r="I29">
-        <v>0.81566959239797798</v>
+        <v>0.88861895527149504</v>
       </c>
       <c r="J29">
-        <v>0.80820768096129203</v>
+        <v>0.88225112334662403</v>
       </c>
       <c r="K29">
-        <v>318.86470000000003</v>
+        <v>169.45070000000001</v>
       </c>
       <c r="L29">
-        <v>1525.0252</v>
+        <v>586.56119999999999</v>
       </c>
       <c r="M29">
-        <v>1368.6481000000001</v>
+        <v>707.88310000000001</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
@@ -1996,40 +1999,40 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="C30">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="D30">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E30">
-        <v>2.7590834463369001E-2</v>
+        <v>1.4534280548713301E-2</v>
       </c>
       <c r="F30">
-        <v>7.0199225387219497E-2</v>
+        <v>2.1759217409204602E-2</v>
       </c>
       <c r="G30">
-        <v>0.24419607472198801</v>
+        <v>0.30965599953234502</v>
       </c>
       <c r="H30">
-        <v>0.83362889118126604</v>
+        <v>0.89890637572667198</v>
       </c>
       <c r="I30">
-        <v>0.81566959239797798</v>
+        <v>0.88861895527149504</v>
       </c>
       <c r="J30">
-        <v>0.80820768096129203</v>
+        <v>0.88225112334662403</v>
       </c>
       <c r="K30">
-        <v>318.86470000000003</v>
+        <v>169.45070000000001</v>
       </c>
       <c r="L30">
-        <v>1525.0252</v>
+        <v>586.56119999999999</v>
       </c>
       <c r="M30">
-        <v>1368.6481000000001</v>
+        <v>707.88310000000001</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
@@ -2037,40 +2040,40 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="C31">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D31">
         <v>0.01</v>
       </c>
       <c r="E31">
-        <v>4.5481921175543998E-2</v>
+        <v>7.0994104911257697E-2</v>
       </c>
       <c r="F31">
-        <v>0.11294140134050799</v>
+        <v>0.25844257454645397</v>
       </c>
       <c r="G31">
-        <v>0.71282048629044104</v>
+        <v>1.362065481461</v>
       </c>
       <c r="H31">
-        <v>0.84599092283419897</v>
+        <v>0.80363936637881905</v>
       </c>
       <c r="I31">
-        <v>0.82756077488357804</v>
+        <v>0.79165490945321204</v>
       </c>
       <c r="J31">
-        <v>0.82088056909325002</v>
+        <v>0.78036946383481798</v>
       </c>
       <c r="K31">
-        <v>317.8458</v>
+        <v>222.59229999999999</v>
       </c>
       <c r="L31">
-        <v>1473.9538</v>
+        <v>969.58019999999999</v>
       </c>
       <c r="M31">
-        <v>1403.7338999999999</v>
+        <v>822.18700000000001</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
@@ -2078,43 +2081,1192 @@
         <v>1</v>
       </c>
       <c r="B32">
+        <v>200000</v>
+      </c>
+      <c r="C32">
+        <v>1000</v>
+      </c>
+      <c r="D32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E32">
+        <v>3.87318125556399E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.126096461381457</v>
+      </c>
+      <c r="G32">
+        <v>0.60109341218221002</v>
+      </c>
+      <c r="H32">
+        <v>0.80363936637881905</v>
+      </c>
+      <c r="I32">
+        <v>0.79165490945321204</v>
+      </c>
+      <c r="J32">
+        <v>0.78036946383481798</v>
+      </c>
+      <c r="K32">
+        <v>222.59229999999999</v>
+      </c>
+      <c r="L32">
+        <v>969.58019999999999</v>
+      </c>
+      <c r="M32">
+        <v>822.18700000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>200000</v>
+      </c>
+      <c r="C33">
+        <v>1500</v>
+      </c>
+      <c r="D33">
+        <v>0.01</v>
+      </c>
+      <c r="E33">
+        <v>5.2845751883761602E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.16035901634913</v>
+      </c>
+      <c r="G33">
+        <v>0.68717506536054895</v>
+      </c>
+      <c r="H33">
+        <v>0.82817165454011799</v>
+      </c>
+      <c r="I33">
+        <v>0.81157470837082801</v>
+      </c>
+      <c r="J33">
+        <v>0.80322847595234403</v>
+      </c>
+      <c r="K33">
+        <v>208.5248</v>
+      </c>
+      <c r="L33">
+        <v>905.40920000000006</v>
+      </c>
+      <c r="M33">
+        <v>832.21389999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>200000</v>
+      </c>
+      <c r="C34">
+        <v>1500</v>
+      </c>
+      <c r="D34">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E34">
+        <v>2.7825141796829499E-2</v>
+      </c>
+      <c r="F34">
+        <v>7.8648367984211001E-2</v>
+      </c>
+      <c r="G34">
+        <v>0.27658112855796102</v>
+      </c>
+      <c r="H34">
+        <v>0.82817165454011799</v>
+      </c>
+      <c r="I34">
+        <v>0.81157470837082801</v>
+      </c>
+      <c r="J34">
+        <v>0.80322847595234403</v>
+      </c>
+      <c r="K34">
+        <v>208.5248</v>
+      </c>
+      <c r="L34">
+        <v>905.40920000000006</v>
+      </c>
+      <c r="M34">
+        <v>832.21389999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>200000</v>
+      </c>
+      <c r="C35">
+        <v>2000</v>
+      </c>
+      <c r="D35">
+        <v>0.01</v>
+      </c>
+      <c r="E35">
+        <v>4.40796690776738E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.115197428061769</v>
+      </c>
+      <c r="G35">
+        <v>0.92542175560056406</v>
+      </c>
+      <c r="H35">
+        <v>0.84773099977303801</v>
+      </c>
+      <c r="I35">
+        <v>0.82930068323599504</v>
+      </c>
+      <c r="J35">
+        <v>0.82285421234420897</v>
+      </c>
+      <c r="K35">
+        <v>200.53319999999999</v>
+      </c>
+      <c r="L35">
+        <v>876.33100000000002</v>
+      </c>
+      <c r="M35">
+        <v>867.27509999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>200000</v>
+      </c>
+      <c r="C36">
+        <v>2000</v>
+      </c>
+      <c r="D36">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E36">
+        <v>2.35525470770813E-2</v>
+      </c>
+      <c r="F36">
+        <v>5.5286247282207601E-2</v>
+      </c>
+      <c r="G36">
+        <v>0.26769536777215802</v>
+      </c>
+      <c r="H36">
+        <v>0.84773099977303801</v>
+      </c>
+      <c r="I36">
+        <v>0.82930068323599504</v>
+      </c>
+      <c r="J36">
+        <v>0.82285421234420897</v>
+      </c>
+      <c r="K36">
+        <v>200.53319999999999</v>
+      </c>
+      <c r="L36">
+        <v>876.33100000000002</v>
+      </c>
+      <c r="M36">
+        <v>867.27509999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>200000</v>
+      </c>
+      <c r="C37">
+        <v>2500</v>
+      </c>
+      <c r="D37">
+        <v>0.01</v>
+      </c>
+      <c r="E37">
+        <v>3.7535010027989903E-2</v>
+      </c>
+      <c r="F37">
+        <v>8.7639091233750299E-2</v>
+      </c>
+      <c r="G37">
+        <v>0.98084458409647202</v>
+      </c>
+      <c r="H37">
+        <v>0.86368498904331903</v>
+      </c>
+      <c r="I37">
+        <v>0.84554621044417799</v>
+      </c>
+      <c r="J37">
+        <v>0.83968224082466503</v>
+      </c>
+      <c r="K37">
+        <v>199.53039999999999</v>
+      </c>
+      <c r="L37">
+        <v>909.39170000000001</v>
+      </c>
+      <c r="M37">
+        <v>944.54089999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>200000</v>
+      </c>
+      <c r="C38">
+        <v>2500</v>
+      </c>
+      <c r="D38">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E38">
+        <v>1.81000013087208E-2</v>
+      </c>
+      <c r="F38">
+        <v>4.2080328062108999E-2</v>
+      </c>
+      <c r="G38">
+        <v>0.240405283327907</v>
+      </c>
+      <c r="H38">
+        <v>0.86368498904331903</v>
+      </c>
+      <c r="I38">
+        <v>0.84554621044417799</v>
+      </c>
+      <c r="J38">
+        <v>0.83968224082466503</v>
+      </c>
+      <c r="K38">
+        <v>199.53039999999999</v>
+      </c>
+      <c r="L38">
+        <v>909.39170000000001</v>
+      </c>
+      <c r="M38">
+        <v>944.54089999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>200000</v>
+      </c>
+      <c r="C39">
+        <v>3000</v>
+      </c>
+      <c r="D39">
+        <v>0.01</v>
+      </c>
+      <c r="E39">
+        <v>3.33371232368204E-2</v>
+      </c>
+      <c r="F39">
+        <v>6.8509454482929097E-2</v>
+      </c>
+      <c r="G39">
+        <v>0.43525266701416598</v>
+      </c>
+      <c r="H39">
+        <v>0.87695966318061402</v>
+      </c>
+      <c r="I39">
+        <v>0.86076807535062205</v>
+      </c>
+      <c r="J39">
+        <v>0.85490933829091498</v>
+      </c>
+      <c r="K39">
+        <v>219.60919999999999</v>
+      </c>
+      <c r="L39">
+        <v>860.28840000000002</v>
+      </c>
+      <c r="M39">
+        <v>909.39089999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>200000</v>
+      </c>
+      <c r="C40">
+        <v>3000</v>
+      </c>
+      <c r="D40">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E40">
+        <v>1.5837819188765801E-2</v>
+      </c>
+      <c r="F40">
+        <v>3.33896136160301E-2</v>
+      </c>
+      <c r="G40">
+        <v>0.345887777500897</v>
+      </c>
+      <c r="H40">
+        <v>0.87695966318061402</v>
+      </c>
+      <c r="I40">
+        <v>0.86076807535062205</v>
+      </c>
+      <c r="J40">
+        <v>0.85490933829091498</v>
+      </c>
+      <c r="K40">
+        <v>219.60919999999999</v>
+      </c>
+      <c r="L40">
+        <v>860.28840000000002</v>
+      </c>
+      <c r="M40">
+        <v>909.39089999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>250000</v>
+      </c>
+      <c r="C41">
+        <v>1000</v>
+      </c>
+      <c r="D41">
+        <v>0.01</v>
+      </c>
+      <c r="E41">
+        <v>8.6150018632383696E-2</v>
+      </c>
+      <c r="F41">
+        <v>0.32919880386651701</v>
+      </c>
+      <c r="G41">
+        <v>2.2881525966364502</v>
+      </c>
+      <c r="H41">
+        <v>0.79029304255871802</v>
+      </c>
+      <c r="I41">
+        <v>0.78007792847117996</v>
+      </c>
+      <c r="J41">
+        <v>0.76799815590332998</v>
+      </c>
+      <c r="K41">
+        <v>255.71289999999999</v>
+      </c>
+      <c r="L41">
+        <v>1123.9792</v>
+      </c>
+      <c r="M41">
+        <v>959.5625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>250000</v>
+      </c>
+      <c r="C42">
+        <v>1000</v>
+      </c>
+      <c r="D42">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E42">
+        <v>4.7332799560927903E-2</v>
+      </c>
+      <c r="F42">
+        <v>0.164413213027822</v>
+      </c>
+      <c r="G42">
+        <v>0.72239658322723399</v>
+      </c>
+      <c r="H42">
+        <v>0.79029304255871802</v>
+      </c>
+      <c r="I42">
+        <v>0.78007792847117996</v>
+      </c>
+      <c r="J42">
+        <v>0.76799815590332998</v>
+      </c>
+      <c r="K42">
+        <v>255.71289999999999</v>
+      </c>
+      <c r="L42">
+        <v>1123.9792</v>
+      </c>
+      <c r="M42">
+        <v>959.5625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>250000</v>
+      </c>
+      <c r="C43">
+        <v>1500</v>
+      </c>
+      <c r="D43">
+        <v>0.01</v>
+      </c>
+      <c r="E43">
+        <v>6.1529996420646299E-2</v>
+      </c>
+      <c r="F43">
+        <v>0.20891022383855001</v>
+      </c>
+      <c r="G43">
+        <v>1.3977382964201699</v>
+      </c>
+      <c r="H43">
+        <v>0.812567894756416</v>
+      </c>
+      <c r="I43">
+        <v>0.79831041360159605</v>
+      </c>
+      <c r="J43">
+        <v>0.78835420483542995</v>
+      </c>
+      <c r="K43">
+        <v>261.69580000000002</v>
+      </c>
+      <c r="L43">
+        <v>1166.0742</v>
+      </c>
+      <c r="M43">
+        <v>1014.6992</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>250000</v>
+      </c>
+      <c r="C44">
+        <v>1500</v>
+      </c>
+      <c r="D44">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E44">
+        <v>3.3990564657964802E-2</v>
+      </c>
+      <c r="F44">
+        <v>0.103038069731065</v>
+      </c>
+      <c r="G44">
+        <v>0.64340687658975804</v>
+      </c>
+      <c r="H44">
+        <v>0.812567894756416</v>
+      </c>
+      <c r="I44">
+        <v>0.79831041360159605</v>
+      </c>
+      <c r="J44">
+        <v>0.78835420483542995</v>
+      </c>
+      <c r="K44">
+        <v>261.69580000000002</v>
+      </c>
+      <c r="L44">
+        <v>1166.0742</v>
+      </c>
+      <c r="M44">
+        <v>1014.6992</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>250000</v>
+      </c>
+      <c r="C45">
+        <v>2000</v>
+      </c>
+      <c r="D45">
+        <v>0.01</v>
+      </c>
+      <c r="E45">
+        <v>5.2166362478595601E-2</v>
+      </c>
+      <c r="F45">
+        <v>0.14979459610811599</v>
+      </c>
+      <c r="G45">
+        <v>0.88517444944866097</v>
+      </c>
+      <c r="H45">
+        <v>0.83107722997092204</v>
+      </c>
+      <c r="I45">
+        <v>0.81352844966426996</v>
+      </c>
+      <c r="J45">
+        <v>0.80562522328070396</v>
+      </c>
+      <c r="K45">
+        <v>249.6644</v>
+      </c>
+      <c r="L45">
+        <v>1176.1291000000001</v>
+      </c>
+      <c r="M45">
+        <v>1061.8561999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>250000</v>
+      </c>
+      <c r="C46">
+        <v>2000</v>
+      </c>
+      <c r="D46">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E46">
+        <v>2.2983372262063199E-2</v>
+      </c>
+      <c r="F46">
+        <v>7.4050215842529299E-2</v>
+      </c>
+      <c r="G46">
+        <v>0.57628381726400901</v>
+      </c>
+      <c r="H46">
+        <v>0.83107722997092204</v>
+      </c>
+      <c r="I46">
+        <v>0.81352844966426996</v>
+      </c>
+      <c r="J46">
+        <v>0.80562522328070396</v>
+      </c>
+      <c r="K46">
+        <v>249.6644</v>
+      </c>
+      <c r="L46">
+        <v>1176.1291000000001</v>
+      </c>
+      <c r="M46">
+        <v>1061.8561999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>250000</v>
+      </c>
+      <c r="C47">
+        <v>2500</v>
+      </c>
+      <c r="D47">
+        <v>0.01</v>
+      </c>
+      <c r="E47">
+        <v>4.7402350554778899E-2</v>
+      </c>
+      <c r="F47">
+        <v>0.11349792503417</v>
+      </c>
+      <c r="G47">
+        <v>0.99155163153417802</v>
+      </c>
+      <c r="H47">
+        <v>0.84640513766097303</v>
+      </c>
+      <c r="I47">
+        <v>0.82779916391107</v>
+      </c>
+      <c r="J47">
+        <v>0.82104436784179102</v>
+      </c>
+      <c r="K47">
+        <v>263.70310000000001</v>
+      </c>
+      <c r="L47">
+        <v>1272.3856000000001</v>
+      </c>
+      <c r="M47">
+        <v>1118.9480000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>250000</v>
+      </c>
+      <c r="C48">
+        <v>2500</v>
+      </c>
+      <c r="D48">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E48">
+        <v>2.2461868864088901E-2</v>
+      </c>
+      <c r="F48">
+        <v>5.5974075537494797E-2</v>
+      </c>
+      <c r="G48">
+        <v>0.62669971854937001</v>
+      </c>
+      <c r="H48">
+        <v>0.84640513766097303</v>
+      </c>
+      <c r="I48">
+        <v>0.82779916391107</v>
+      </c>
+      <c r="J48">
+        <v>0.82104436784179102</v>
+      </c>
+      <c r="K48">
+        <v>263.70310000000001</v>
+      </c>
+      <c r="L48">
+        <v>1272.3856000000001</v>
+      </c>
+      <c r="M48">
+        <v>1118.9480000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>250000</v>
+      </c>
+      <c r="C49">
+        <v>3000</v>
+      </c>
+      <c r="D49">
+        <v>0.01</v>
+      </c>
+      <c r="E49">
+        <v>4.1283295501750798E-2</v>
+      </c>
+      <c r="F49">
+        <v>8.9807082552455994E-2</v>
+      </c>
+      <c r="G49">
+        <v>0.67808413645921695</v>
+      </c>
+      <c r="H49">
+        <v>0.859442581949039</v>
+      </c>
+      <c r="I49">
+        <v>0.84080369550333001</v>
+      </c>
+      <c r="J49">
+        <v>0.83465844965746905</v>
+      </c>
+      <c r="K49">
+        <v>261.72660000000002</v>
+      </c>
+      <c r="L49">
+        <v>1130.0320999999999</v>
+      </c>
+      <c r="M49">
+        <v>1141.0353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>250000</v>
+      </c>
+      <c r="C50">
+        <v>3000</v>
+      </c>
+      <c r="D50">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E50">
+        <v>2.0228726566254001E-2</v>
+      </c>
+      <c r="F50">
+        <v>4.5010852464212603E-2</v>
+      </c>
+      <c r="G50">
+        <v>0.26274604072420599</v>
+      </c>
+      <c r="H50">
+        <v>0.859442581949039</v>
+      </c>
+      <c r="I50">
+        <v>0.84080369550333001</v>
+      </c>
+      <c r="J50">
+        <v>0.83465844965746905</v>
+      </c>
+      <c r="K50">
+        <v>261.72660000000002</v>
+      </c>
+      <c r="L50">
+        <v>1130.0320999999999</v>
+      </c>
+      <c r="M50">
+        <v>1141.0353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51">
         <v>300000</v>
       </c>
-      <c r="C32">
+      <c r="C51">
+        <v>1000</v>
+      </c>
+      <c r="D51">
+        <v>0.01</v>
+      </c>
+      <c r="E51">
+        <v>9.4680581009902606E-2</v>
+      </c>
+      <c r="F51">
+        <v>0.401345341257558</v>
+      </c>
+      <c r="G51">
+        <v>2.2227076337137102</v>
+      </c>
+      <c r="H51">
+        <v>0.781375847932398</v>
+      </c>
+      <c r="I51">
+        <v>0.77204950650210002</v>
+      </c>
+      <c r="J51">
+        <v>0.75902761010554998</v>
+      </c>
+      <c r="K51">
+        <v>347.92520000000002</v>
+      </c>
+      <c r="L51">
+        <v>1508.0399</v>
+      </c>
+      <c r="M51">
+        <v>1244.3116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>300000</v>
+      </c>
+      <c r="C52">
+        <v>1000</v>
+      </c>
+      <c r="D52">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E52">
+        <v>5.2482206943567297E-2</v>
+      </c>
+      <c r="F52">
+        <v>0.20248186145981001</v>
+      </c>
+      <c r="G52">
+        <v>1.10006238569863</v>
+      </c>
+      <c r="H52">
+        <v>0.781375847932398</v>
+      </c>
+      <c r="I52">
+        <v>0.77204950650210002</v>
+      </c>
+      <c r="J52">
+        <v>0.75902761010554998</v>
+      </c>
+      <c r="K52">
+        <v>347.92520000000002</v>
+      </c>
+      <c r="L52">
+        <v>1508.0399</v>
+      </c>
+      <c r="M52">
+        <v>1244.3116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>300000</v>
+      </c>
+      <c r="C53">
+        <v>1500</v>
+      </c>
+      <c r="D53">
+        <v>0.01</v>
+      </c>
+      <c r="E53">
+        <v>7.4005665461811004E-2</v>
+      </c>
+      <c r="F53">
+        <v>0.25510036303334199</v>
+      </c>
+      <c r="G53">
+        <v>1.0721012434175901</v>
+      </c>
+      <c r="H53">
+        <v>0.80172469233018595</v>
+      </c>
+      <c r="I53">
+        <v>0.78935465692143902</v>
+      </c>
+      <c r="J53">
+        <v>0.77813771461729098</v>
+      </c>
+      <c r="K53">
+        <v>334.89139999999998</v>
+      </c>
+      <c r="L53">
+        <v>1708.5450000000001</v>
+      </c>
+      <c r="M53">
+        <v>1496.9835</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>300000</v>
+      </c>
+      <c r="C54">
+        <v>1500</v>
+      </c>
+      <c r="D54">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E54">
+        <v>3.7648941399420502E-2</v>
+      </c>
+      <c r="F54">
+        <v>0.12798332127363099</v>
+      </c>
+      <c r="G54">
+        <v>0.45616278950509198</v>
+      </c>
+      <c r="H54">
+        <v>0.80172469233018595</v>
+      </c>
+      <c r="I54">
+        <v>0.78935465692143902</v>
+      </c>
+      <c r="J54">
+        <v>0.77813771461729098</v>
+      </c>
+      <c r="K54">
+        <v>334.89139999999998</v>
+      </c>
+      <c r="L54">
+        <v>1708.5450000000001</v>
+      </c>
+      <c r="M54">
+        <v>1496.9835</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>300000</v>
+      </c>
+      <c r="C55">
+        <v>2000</v>
+      </c>
+      <c r="D55">
+        <v>0.01</v>
+      </c>
+      <c r="E55">
+        <v>6.24642320946995E-2</v>
+      </c>
+      <c r="F55">
+        <v>0.18389531262400599</v>
+      </c>
+      <c r="G55">
+        <v>1.0004187677682199</v>
+      </c>
+      <c r="H55">
+        <v>0.81840544676107696</v>
+      </c>
+      <c r="I55">
+        <v>0.80319501771723301</v>
+      </c>
+      <c r="J55">
+        <v>0.79417279427947296</v>
+      </c>
+      <c r="K55">
+        <v>330.9128</v>
+      </c>
+      <c r="L55">
+        <v>1523.0537999999999</v>
+      </c>
+      <c r="M55">
+        <v>1388.6914999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>300000</v>
+      </c>
+      <c r="C56">
+        <v>2000</v>
+      </c>
+      <c r="D56">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E56">
+        <v>3.5304249824056999E-2</v>
+      </c>
+      <c r="F56">
+        <v>9.1285311417910506E-2</v>
+      </c>
+      <c r="G56">
+        <v>0.41447040342885999</v>
+      </c>
+      <c r="H56">
+        <v>0.81840544676107696</v>
+      </c>
+      <c r="I56">
+        <v>0.80319501771723301</v>
+      </c>
+      <c r="J56">
+        <v>0.79417279427947296</v>
+      </c>
+      <c r="K56">
+        <v>330.9128</v>
+      </c>
+      <c r="L56">
+        <v>1523.0537999999999</v>
+      </c>
+      <c r="M56">
+        <v>1388.6914999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>300000</v>
+      </c>
+      <c r="C57">
+        <v>2500</v>
+      </c>
+      <c r="D57">
+        <v>0.01</v>
+      </c>
+      <c r="E57">
+        <v>4.9616613678314297E-2</v>
+      </c>
+      <c r="F57">
+        <v>0.14062814918177699</v>
+      </c>
+      <c r="G57">
+        <v>1.53365536355267</v>
+      </c>
+      <c r="H57">
+        <v>0.83347791611279198</v>
+      </c>
+      <c r="I57">
+        <v>0.81566677748282901</v>
+      </c>
+      <c r="J57">
+        <v>0.80802774070442496</v>
+      </c>
+      <c r="K57">
+        <v>411.09339999999997</v>
+      </c>
+      <c r="L57">
+        <v>1572.1844000000001</v>
+      </c>
+      <c r="M57">
+        <v>1499.9922999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>300000</v>
+      </c>
+      <c r="C58">
+        <v>2500</v>
+      </c>
+      <c r="D58">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E58">
+        <v>2.5506625259111699E-2</v>
+      </c>
+      <c r="F58">
+        <v>6.9590867324243494E-2</v>
+      </c>
+      <c r="G58">
+        <v>0.35144952205108798</v>
+      </c>
+      <c r="H58">
+        <v>0.83347791611279198</v>
+      </c>
+      <c r="I58">
+        <v>0.81566677748282901</v>
+      </c>
+      <c r="J58">
+        <v>0.80802774070442496</v>
+      </c>
+      <c r="K58">
+        <v>411.09339999999997</v>
+      </c>
+      <c r="L58">
+        <v>1572.1844000000001</v>
+      </c>
+      <c r="M58">
+        <v>1499.9922999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>300000</v>
+      </c>
+      <c r="C59">
         <v>3000</v>
       </c>
-      <c r="D32">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E32">
-        <v>2.3308482622813199E-2</v>
-      </c>
-      <c r="F32">
-        <v>5.6611984605448799E-2</v>
-      </c>
-      <c r="G32">
-        <v>0.31380147708098299</v>
-      </c>
-      <c r="H32">
-        <v>0.84599092283419897</v>
-      </c>
-      <c r="I32">
-        <v>0.82756077488357804</v>
-      </c>
-      <c r="J32">
-        <v>0.82088056909325002</v>
-      </c>
-      <c r="K32">
-        <v>317.8458</v>
-      </c>
-      <c r="L32">
-        <v>1473.9538</v>
-      </c>
-      <c r="M32">
-        <v>1403.7338999999999</v>
+      <c r="D59">
+        <v>0.01</v>
+      </c>
+      <c r="E59">
+        <v>4.4053129471882203E-2</v>
+      </c>
+      <c r="F59">
+        <v>0.111898685664411</v>
+      </c>
+      <c r="G59">
+        <v>1.1176382180853599</v>
+      </c>
+      <c r="H59">
+        <v>0.84603906076823998</v>
+      </c>
+      <c r="I59">
+        <v>0.82754669206503195</v>
+      </c>
+      <c r="J59">
+        <v>0.82073296532871898</v>
+      </c>
+      <c r="K59">
+        <v>315.84050000000002</v>
+      </c>
+      <c r="L59">
+        <v>1553.1323</v>
+      </c>
+      <c r="M59">
+        <v>1403.7355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>300000</v>
+      </c>
+      <c r="C60">
+        <v>3000</v>
+      </c>
+      <c r="D60">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E60">
+        <v>2.36239622523024E-2</v>
+      </c>
+      <c r="F60">
+        <v>5.5775128957774402E-2</v>
+      </c>
+      <c r="G60">
+        <v>0.86920790857583596</v>
+      </c>
+      <c r="H60">
+        <v>0.84603906076823998</v>
+      </c>
+      <c r="I60">
+        <v>0.82754669206503195</v>
+      </c>
+      <c r="J60">
+        <v>0.82073296532871898</v>
+      </c>
+      <c r="K60">
+        <v>315.84050000000002</v>
+      </c>
+      <c r="L60">
+        <v>1553.1323</v>
+      </c>
+      <c r="M60">
+        <v>1403.7355</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M33"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2124,7 +3276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20790" windowHeight="8955" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20790" windowHeight="8955" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SpineReroute" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="FTEval" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SpineEval!$A$1:$M$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FTEval!$A$1:$M$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SpineEval!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="2">
   <si>
     <t>Fattree</t>
   </si>
@@ -797,55 +798,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A2:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>50000</v>
-      </c>
-      <c r="C1">
-        <v>1000</v>
-      </c>
-      <c r="D1">
-        <v>0.01</v>
-      </c>
-      <c r="E1">
-        <v>2.9528316793724401E-2</v>
-      </c>
-      <c r="F1">
-        <v>4.3635777225230099E-2</v>
-      </c>
-      <c r="G1">
-        <v>0.53690662972800995</v>
-      </c>
-      <c r="H1">
-        <v>0.90789116393457603</v>
-      </c>
-      <c r="I1">
-        <v>0.898600927960998</v>
-      </c>
-      <c r="J1">
-        <v>0.89283420066072705</v>
-      </c>
-      <c r="K1">
-        <v>71.188599999999994</v>
-      </c>
-      <c r="L1">
-        <v>190.5069</v>
-      </c>
-      <c r="M1">
-        <v>269.71710000000002</v>
-      </c>
-    </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
@@ -857,16 +817,16 @@
         <v>1000</v>
       </c>
       <c r="D2">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E2">
-        <v>1.5095763217355901E-2</v>
+        <v>2.9528316793724401E-2</v>
       </c>
       <c r="F2">
-        <v>2.37917770484916E-2</v>
+        <v>4.3635777225230099E-2</v>
       </c>
       <c r="G2">
-        <v>8.5080469405617906E-2</v>
+        <v>0.53690662972800995</v>
       </c>
       <c r="H2">
         <v>0.90789116393457603</v>
@@ -895,37 +855,37 @@
         <v>50000</v>
       </c>
       <c r="C3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D3">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E3">
-        <v>2.21569537576446E-2</v>
+        <v>1.5095763217355901E-2</v>
       </c>
       <c r="F3">
-        <v>1.97979258392172E-2</v>
+        <v>2.37917770484916E-2</v>
       </c>
       <c r="G3">
-        <v>9.2336288185576001E-2</v>
+        <v>8.5080469405617906E-2</v>
       </c>
       <c r="H3">
-        <v>0.93120417282434098</v>
+        <v>0.90789116393457603</v>
       </c>
       <c r="I3">
-        <v>0.93640189687242603</v>
+        <v>0.898600927960998</v>
       </c>
       <c r="J3">
-        <v>0.92773896527419697</v>
+        <v>0.89283420066072705</v>
       </c>
       <c r="K3">
-        <v>101.2696</v>
+        <v>71.188599999999994</v>
       </c>
       <c r="L3">
-        <v>179.477</v>
+        <v>190.5069</v>
       </c>
       <c r="M3">
-        <v>319.85019999999997</v>
+        <v>269.71710000000002</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
@@ -939,16 +899,16 @@
         <v>1500</v>
       </c>
       <c r="D4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E4">
-        <v>1.0964109663741801E-2</v>
+        <v>2.21569537576446E-2</v>
       </c>
       <c r="F4">
-        <v>1.0771926195830801E-2</v>
+        <v>1.97979258392172E-2</v>
       </c>
       <c r="G4">
-        <v>4.7107267760531597E-2</v>
+        <v>9.2336288185576001E-2</v>
       </c>
       <c r="H4">
         <v>0.93120417282434098</v>
@@ -977,37 +937,37 @@
         <v>50000</v>
       </c>
       <c r="C5">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E5">
-        <v>1.61574930403935E-2</v>
+        <v>1.0964109663741801E-2</v>
       </c>
       <c r="F5">
-        <v>8.7899745047728597E-3</v>
+        <v>1.0771926195830801E-2</v>
       </c>
       <c r="G5">
-        <v>8.0135655168889097E-2</v>
+        <v>4.7107267760531597E-2</v>
       </c>
       <c r="H5">
-        <v>0.94556403183773696</v>
+        <v>0.93120417282434098</v>
       </c>
       <c r="I5">
-        <v>0.95977501788581099</v>
+        <v>0.93640189687242603</v>
       </c>
       <c r="J5">
-        <v>0.94901974799994104</v>
+        <v>0.92773896527419697</v>
       </c>
       <c r="K5">
-        <v>58.121299999999998</v>
+        <v>101.2696</v>
       </c>
       <c r="L5">
-        <v>138.36879999999999</v>
+        <v>179.477</v>
       </c>
       <c r="M5">
-        <v>199.53039999999999</v>
+        <v>319.85019999999997</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -1021,16 +981,16 @@
         <v>2000</v>
       </c>
       <c r="D6">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E6">
-        <v>9.1627162319032202E-3</v>
+        <v>1.61574930403935E-2</v>
       </c>
       <c r="F6">
-        <v>4.9191747021992598E-3</v>
+        <v>8.7899745047728597E-3</v>
       </c>
       <c r="G6">
-        <v>2.9374980966783801E-2</v>
+        <v>8.0135655168889097E-2</v>
       </c>
       <c r="H6">
         <v>0.94556403183773696</v>
@@ -1059,37 +1019,37 @@
         <v>50000</v>
       </c>
       <c r="C7">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D7">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E7">
-        <v>1.29605975256591E-2</v>
+        <v>9.1627162319032202E-3</v>
       </c>
       <c r="F7">
-        <v>4.38405380971522E-3</v>
+        <v>4.9191747021992598E-3</v>
       </c>
       <c r="G7">
-        <v>7.3425190780416705E-2</v>
+        <v>2.9374980966783801E-2</v>
       </c>
       <c r="H7">
-        <v>0.95508961059366304</v>
+        <v>0.94556403183773696</v>
       </c>
       <c r="I7">
-        <v>0.97105464877162595</v>
+        <v>0.95977501788581099</v>
       </c>
       <c r="J7">
-        <v>0.96460702893788897</v>
+        <v>0.94901974799994104</v>
       </c>
       <c r="K7">
-        <v>52.138399999999997</v>
+        <v>58.121299999999998</v>
       </c>
       <c r="L7">
-        <v>127.3399</v>
+        <v>138.36879999999999</v>
       </c>
       <c r="M7">
-        <v>173.46080000000001</v>
+        <v>199.53039999999999</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -1103,16 +1063,16 @@
         <v>2500</v>
       </c>
       <c r="D8">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E8">
-        <v>7.65357011432387E-3</v>
+        <v>1.29605975256591E-2</v>
       </c>
       <c r="F8">
-        <v>2.8014195118506099E-3</v>
+        <v>4.38405380971522E-3</v>
       </c>
       <c r="G8">
-        <v>2.2185668181804299E-2</v>
+        <v>7.3425190780416705E-2</v>
       </c>
       <c r="H8">
         <v>0.95508961059366304</v>
@@ -1141,37 +1101,37 @@
         <v>50000</v>
       </c>
       <c r="C9">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="D9">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E9">
-        <v>1.1064027973968899E-2</v>
+        <v>7.65357011432387E-3</v>
       </c>
       <c r="F9">
-        <v>1.56812095534246E-3</v>
+        <v>2.8014195118506099E-3</v>
       </c>
       <c r="G9">
-        <v>5.8831935673530199E-2</v>
+        <v>2.2185668181804299E-2</v>
       </c>
       <c r="H9">
-        <v>0.96055782828839897</v>
+        <v>0.95508961059366304</v>
       </c>
       <c r="I9">
-        <v>0.97823275636822504</v>
+        <v>0.97105464877162595</v>
       </c>
       <c r="J9">
-        <v>0.97455511628248503</v>
+        <v>0.96460702893788897</v>
       </c>
       <c r="K9">
-        <v>54.143999999999998</v>
+        <v>52.138399999999997</v>
       </c>
       <c r="L9">
-        <v>94.250799999999998</v>
+        <v>127.3399</v>
       </c>
       <c r="M9">
-        <v>154.44059999999999</v>
+        <v>173.46080000000001</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
@@ -1185,16 +1145,16 @@
         <v>3000</v>
       </c>
       <c r="D10">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E10">
-        <v>5.3228145715084902E-3</v>
+        <v>1.1064027973968899E-2</v>
       </c>
       <c r="F10">
-        <v>1.0907849784256201E-3</v>
+        <v>1.56812095534246E-3</v>
       </c>
       <c r="G10">
-        <v>5.0728758742363399E-2</v>
+        <v>5.8831935673530199E-2</v>
       </c>
       <c r="H10">
         <v>0.96055782828839897</v>
@@ -1220,40 +1180,40 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="C11">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D11">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E11">
-        <v>4.6789209563346597E-2</v>
+        <v>5.3228145715084902E-3</v>
       </c>
       <c r="F11">
-        <v>0.111318439287843</v>
+        <v>1.0907849784256201E-3</v>
       </c>
       <c r="G11">
-        <v>1.40602630355248</v>
+        <v>5.0728758742363399E-2</v>
       </c>
       <c r="H11">
-        <v>0.85283563659455497</v>
+        <v>0.96055782828839897</v>
       </c>
       <c r="I11">
-        <v>0.83530153346261804</v>
+        <v>0.97823275636822504</v>
       </c>
       <c r="J11">
-        <v>0.82905422148361196</v>
+        <v>0.97455511628248503</v>
       </c>
       <c r="K11">
-        <v>121.32040000000001</v>
+        <v>54.143999999999998</v>
       </c>
       <c r="L11">
-        <v>388.03359999999998</v>
+        <v>94.250799999999998</v>
       </c>
       <c r="M11">
-        <v>393.01659999999998</v>
+        <v>154.44059999999999</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -1267,16 +1227,16 @@
         <v>1000</v>
       </c>
       <c r="D12">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E12">
-        <v>2.0438074314110599E-2</v>
+        <v>4.6789209563346597E-2</v>
       </c>
       <c r="F12">
-        <v>5.6606628615974097E-2</v>
+        <v>0.111318439287843</v>
       </c>
       <c r="G12">
-        <v>0.58453776479601205</v>
+        <v>1.40602630355248</v>
       </c>
       <c r="H12">
         <v>0.85283563659455497</v>
@@ -1305,37 +1265,37 @@
         <v>100000</v>
       </c>
       <c r="C13">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D13">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E13">
-        <v>3.8157134542106501E-2</v>
+        <v>2.0438074314110599E-2</v>
       </c>
       <c r="F13">
-        <v>6.5857365476892402E-2</v>
+        <v>5.6606628615974097E-2</v>
       </c>
       <c r="G13">
-        <v>0.28116347580710499</v>
+        <v>0.58453776479601205</v>
       </c>
       <c r="H13">
-        <v>0.880907053986695</v>
+        <v>0.85283563659455497</v>
       </c>
       <c r="I13">
-        <v>0.86563909474287504</v>
+        <v>0.83530153346261804</v>
       </c>
       <c r="J13">
-        <v>0.85989471731537903</v>
+        <v>0.82905422148361196</v>
       </c>
       <c r="K13">
-        <v>107.285</v>
+        <v>121.32040000000001</v>
       </c>
       <c r="L13">
-        <v>377.03190000000001</v>
+        <v>388.03359999999998</v>
       </c>
       <c r="M13">
-        <v>432.15</v>
+        <v>393.01659999999998</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
@@ -1349,16 +1309,16 @@
         <v>1500</v>
       </c>
       <c r="D14">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E14">
-        <v>2.0675138957853199E-2</v>
+        <v>3.8157134542106501E-2</v>
       </c>
       <c r="F14">
-        <v>3.3633770860438998E-2</v>
+        <v>6.5857365476892402E-2</v>
       </c>
       <c r="G14">
-        <v>0.185210997354812</v>
+        <v>0.28116347580710499</v>
       </c>
       <c r="H14">
         <v>0.880907053986695</v>
@@ -1387,37 +1347,37 @@
         <v>100000</v>
       </c>
       <c r="C15">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D15">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E15">
-        <v>2.7025406966638299E-2</v>
+        <v>2.0675138957853199E-2</v>
       </c>
       <c r="F15">
-        <v>4.1678965466541901E-2</v>
+        <v>3.3633770860438998E-2</v>
       </c>
       <c r="G15">
-        <v>0.28428227095908198</v>
+        <v>0.185210997354812</v>
       </c>
       <c r="H15">
-        <v>0.90125361991556996</v>
+        <v>0.880907053986695</v>
       </c>
       <c r="I15">
-        <v>0.891446059160797</v>
+        <v>0.86563909474287504</v>
       </c>
       <c r="J15">
-        <v>0.88531091507861503</v>
+        <v>0.85989471731537903</v>
       </c>
       <c r="K15">
-        <v>117.3133</v>
+        <v>107.285</v>
       </c>
       <c r="L15">
-        <v>348.92869999999999</v>
+        <v>377.03190000000001</v>
       </c>
       <c r="M15">
-        <v>427.10500000000002</v>
+        <v>432.15</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
@@ -1431,16 +1391,16 @@
         <v>2000</v>
       </c>
       <c r="D16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E16">
-        <v>1.34578976264504E-2</v>
+        <v>2.7025406966638299E-2</v>
       </c>
       <c r="F16">
-        <v>2.0890970638864598E-2</v>
+        <v>4.1678965466541901E-2</v>
       </c>
       <c r="G16">
-        <v>8.0307066956610607E-2</v>
+        <v>0.28428227095908198</v>
       </c>
       <c r="H16">
         <v>0.90125361991556996</v>
@@ -1469,37 +1429,37 @@
         <v>100000</v>
       </c>
       <c r="C17">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D17">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E17">
-        <v>2.39883374639989E-2</v>
+        <v>1.34578976264504E-2</v>
       </c>
       <c r="F17">
-        <v>2.9074514947082401E-2</v>
+        <v>2.0890970638864598E-2</v>
       </c>
       <c r="G17">
-        <v>0.73214549571240095</v>
+        <v>8.0307066956610607E-2</v>
       </c>
       <c r="H17">
-        <v>0.91553205161586804</v>
+        <v>0.90125361991556996</v>
       </c>
       <c r="I17">
-        <v>0.91400043836056</v>
+        <v>0.891446059160797</v>
       </c>
       <c r="J17">
-        <v>0.90616651703852302</v>
+        <v>0.88531091507861503</v>
       </c>
       <c r="K17">
-        <v>107.2782</v>
+        <v>117.3133</v>
       </c>
       <c r="L17">
-        <v>332.85809999999998</v>
+        <v>348.92869999999999</v>
       </c>
       <c r="M17">
-        <v>447.21769999999998</v>
+        <v>427.10500000000002</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
@@ -1513,16 +1473,16 @@
         <v>2500</v>
       </c>
       <c r="D18">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E18">
-        <v>1.24640862580841E-2</v>
+        <v>2.39883374639989E-2</v>
       </c>
       <c r="F18">
-        <v>1.46560323804033E-2</v>
+        <v>2.9074514947082401E-2</v>
       </c>
       <c r="G18">
-        <v>0.28149404415608398</v>
+        <v>0.73214549571240095</v>
       </c>
       <c r="H18">
         <v>0.91553205161586804</v>
@@ -1551,37 +1511,37 @@
         <v>100000</v>
       </c>
       <c r="C19">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="D19">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E19">
-        <v>2.1573986796571201E-2</v>
+        <v>1.24640862580841E-2</v>
       </c>
       <c r="F19">
-        <v>2.0647866822296398E-2</v>
+        <v>1.46560323804033E-2</v>
       </c>
       <c r="G19">
-        <v>0.60447311555406302</v>
+        <v>0.28149404415608398</v>
       </c>
       <c r="H19">
-        <v>0.92738674152283396</v>
+        <v>0.91553205161586804</v>
       </c>
       <c r="I19">
-        <v>0.93270531608667395</v>
+        <v>0.91400043836056</v>
       </c>
       <c r="J19">
-        <v>0.9230825379298</v>
+        <v>0.90616651703852302</v>
       </c>
       <c r="K19">
-        <v>113.3013</v>
+        <v>107.2782</v>
       </c>
       <c r="L19">
-        <v>314.83089999999999</v>
+        <v>332.85809999999998</v>
       </c>
       <c r="M19">
-        <v>418.15179999999998</v>
+        <v>447.21769999999998</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
@@ -1595,16 +1555,16 @@
         <v>3000</v>
       </c>
       <c r="D20">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E20">
-        <v>9.8034093382399906E-3</v>
+        <v>2.1573986796571201E-2</v>
       </c>
       <c r="F20">
-        <v>1.0252448581185699E-2</v>
+        <v>2.0647866822296398E-2</v>
       </c>
       <c r="G20">
-        <v>0.3770381447283</v>
+        <v>0.60447311555406302</v>
       </c>
       <c r="H20">
         <v>0.92738674152283396</v>
@@ -1630,40 +1590,40 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="C21">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D21">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E21">
-        <v>5.9912775369660103E-2</v>
+        <v>9.8034093382399906E-3</v>
       </c>
       <c r="F21">
-        <v>0.18368985451375</v>
+        <v>1.0252448581185699E-2</v>
       </c>
       <c r="G21">
-        <v>1.03244460804444</v>
+        <v>0.3770381447283</v>
       </c>
       <c r="H21">
-        <v>0.82256541500215097</v>
+        <v>0.92738674152283396</v>
       </c>
       <c r="I21">
-        <v>0.80726977852086301</v>
+        <v>0.93270531608667395</v>
       </c>
       <c r="J21">
-        <v>0.79828449084209296</v>
+        <v>0.9230825379298</v>
       </c>
       <c r="K21">
-        <v>149.42850000000001</v>
+        <v>113.3013</v>
       </c>
       <c r="L21">
-        <v>632.68380000000002</v>
+        <v>314.83089999999999</v>
       </c>
       <c r="M21">
-        <v>593.54830000000004</v>
+        <v>418.15179999999998</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
@@ -1677,16 +1637,16 @@
         <v>1000</v>
       </c>
       <c r="D22">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E22">
-        <v>3.1879859021997102E-2</v>
+        <v>5.9912775369660103E-2</v>
       </c>
       <c r="F22">
-        <v>9.2140723925525803E-2</v>
+        <v>0.18368985451375</v>
       </c>
       <c r="G22">
-        <v>0.435470878913371</v>
+        <v>1.03244460804444</v>
       </c>
       <c r="H22">
         <v>0.82256541500215097</v>
@@ -1715,37 +1675,37 @@
         <v>150000</v>
       </c>
       <c r="C23">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D23">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E23">
-        <v>4.2437768602515601E-2</v>
+        <v>3.1879859021997102E-2</v>
       </c>
       <c r="F23">
-        <v>0.11231236253126201</v>
+        <v>9.2140723925525803E-2</v>
       </c>
       <c r="G23">
-        <v>0.56915121455626105</v>
+        <v>0.435470878913371</v>
       </c>
       <c r="H23">
-        <v>0.84927692028016799</v>
+        <v>0.82256541500215097</v>
       </c>
       <c r="I23">
-        <v>0.83115117843226105</v>
+        <v>0.80726977852086301</v>
       </c>
       <c r="J23">
-        <v>0.82423743040029795</v>
+        <v>0.79828449084209296</v>
       </c>
       <c r="K23">
-        <v>174.4639</v>
+        <v>149.42850000000001</v>
       </c>
       <c r="L23">
-        <v>622.62310000000002</v>
+        <v>632.68380000000002</v>
       </c>
       <c r="M23">
-        <v>632.71720000000005</v>
+        <v>593.54830000000004</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
@@ -1759,16 +1719,16 @@
         <v>1500</v>
       </c>
       <c r="D24">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E24">
-        <v>2.3691239562319201E-2</v>
+        <v>4.2437768602515601E-2</v>
       </c>
       <c r="F24">
-        <v>5.6303314168621499E-2</v>
+        <v>0.11231236253126201</v>
       </c>
       <c r="G24">
-        <v>0.42373942600824399</v>
+        <v>0.56915121455626105</v>
       </c>
       <c r="H24">
         <v>0.84927692028016799</v>
@@ -1797,37 +1757,37 @@
         <v>150000</v>
       </c>
       <c r="C25">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D25">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E25">
-        <v>3.6322892940724001E-2</v>
+        <v>2.3691239562319201E-2</v>
       </c>
       <c r="F25">
-        <v>7.8353721858904296E-2</v>
+        <v>5.6303314168621499E-2</v>
       </c>
       <c r="G25">
-        <v>1.05166994699939</v>
+        <v>0.42373942600824399</v>
       </c>
       <c r="H25">
-        <v>0.86944596473485902</v>
+        <v>0.84927692028016799</v>
       </c>
       <c r="I25">
-        <v>0.85201261157586305</v>
+        <v>0.83115117843226105</v>
       </c>
       <c r="J25">
-        <v>0.84627573784402699</v>
+        <v>0.82423743040029795</v>
       </c>
       <c r="K25">
-        <v>173.46109999999999</v>
+        <v>174.4639</v>
       </c>
       <c r="L25">
-        <v>623.65930000000003</v>
+        <v>622.62310000000002</v>
       </c>
       <c r="M25">
-        <v>668.77930000000003</v>
+        <v>632.71720000000005</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
@@ -1841,16 +1801,16 @@
         <v>2000</v>
       </c>
       <c r="D26">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E26">
-        <v>1.96346142927032E-2</v>
+        <v>3.6322892940724001E-2</v>
       </c>
       <c r="F26">
-        <v>3.9986276345688299E-2</v>
+        <v>7.8353721858904296E-2</v>
       </c>
       <c r="G26">
-        <v>0.26512682173963997</v>
+        <v>1.05166994699939</v>
       </c>
       <c r="H26">
         <v>0.86944596473485902</v>
@@ -1879,37 +1839,37 @@
         <v>150000</v>
       </c>
       <c r="C27">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D27">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E27">
-        <v>3.1646785159264501E-2</v>
+        <v>1.96346142927032E-2</v>
       </c>
       <c r="F27">
-        <v>5.7448032883763302E-2</v>
+        <v>3.9986276345688299E-2</v>
       </c>
       <c r="G27">
-        <v>0.35090205632400701</v>
+        <v>0.26512682173963997</v>
       </c>
       <c r="H27">
-        <v>0.88582238239894395</v>
+        <v>0.86944596473485902</v>
       </c>
       <c r="I27">
-        <v>0.87166132923646</v>
+        <v>0.85201261157586305</v>
       </c>
       <c r="J27">
-        <v>0.86557218672545899</v>
+        <v>0.84627573784402699</v>
       </c>
       <c r="K27">
-        <v>178.47749999999999</v>
+        <v>173.46109999999999</v>
       </c>
       <c r="L27">
-        <v>590.57150000000001</v>
+        <v>623.65930000000003</v>
       </c>
       <c r="M27">
-        <v>667.7758</v>
+        <v>668.77930000000003</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
@@ -1923,16 +1883,16 @@
         <v>2500</v>
       </c>
       <c r="D28">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E28">
-        <v>1.39491934431619E-2</v>
+        <v>3.1646785159264501E-2</v>
       </c>
       <c r="F28">
-        <v>2.8733033431750099E-2</v>
+        <v>5.7448032883763302E-2</v>
       </c>
       <c r="G28">
-        <v>0.231228637125798</v>
+        <v>0.35090205632400701</v>
       </c>
       <c r="H28">
         <v>0.88582238239894395</v>
@@ -1961,37 +1921,37 @@
         <v>150000</v>
       </c>
       <c r="C29">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="D29">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E29">
-        <v>2.86187508271032E-2</v>
+        <v>1.39491934431619E-2</v>
       </c>
       <c r="F29">
-        <v>4.4006329922519398E-2</v>
+        <v>2.8733033431750099E-2</v>
       </c>
       <c r="G29">
-        <v>0.86688146890165996</v>
+        <v>0.231228637125798</v>
       </c>
       <c r="H29">
-        <v>0.89890637572667198</v>
+        <v>0.88582238239894395</v>
       </c>
       <c r="I29">
-        <v>0.88861895527149504</v>
+        <v>0.87166132923646</v>
       </c>
       <c r="J29">
-        <v>0.88225112334662403</v>
+        <v>0.86557218672545899</v>
       </c>
       <c r="K29">
-        <v>169.45070000000001</v>
+        <v>178.47749999999999</v>
       </c>
       <c r="L29">
-        <v>586.56119999999999</v>
+        <v>590.57150000000001</v>
       </c>
       <c r="M29">
-        <v>707.88310000000001</v>
+        <v>667.7758</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
@@ -2005,16 +1965,16 @@
         <v>3000</v>
       </c>
       <c r="D30">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E30">
-        <v>1.4534280548713301E-2</v>
+        <v>2.86187508271032E-2</v>
       </c>
       <c r="F30">
-        <v>2.1759217409204602E-2</v>
+        <v>4.4006329922519398E-2</v>
       </c>
       <c r="G30">
-        <v>0.30965599953234502</v>
+        <v>0.86688146890165996</v>
       </c>
       <c r="H30">
         <v>0.89890637572667198</v>
@@ -2040,40 +2000,40 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="C31">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D31">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E31">
-        <v>7.0994104911257697E-2</v>
+        <v>1.4534280548713301E-2</v>
       </c>
       <c r="F31">
-        <v>0.25844257454645397</v>
+        <v>2.1759217409204602E-2</v>
       </c>
       <c r="G31">
-        <v>1.362065481461</v>
+        <v>0.30965599953234502</v>
       </c>
       <c r="H31">
-        <v>0.80363936637881905</v>
+        <v>0.89890637572667198</v>
       </c>
       <c r="I31">
-        <v>0.79165490945321204</v>
+        <v>0.88861895527149504</v>
       </c>
       <c r="J31">
-        <v>0.78036946383481798</v>
+        <v>0.88225112334662403</v>
       </c>
       <c r="K31">
-        <v>222.59229999999999</v>
+        <v>169.45070000000001</v>
       </c>
       <c r="L31">
-        <v>969.58019999999999</v>
+        <v>586.56119999999999</v>
       </c>
       <c r="M31">
-        <v>822.18700000000001</v>
+        <v>707.88310000000001</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
@@ -2087,16 +2047,16 @@
         <v>1000</v>
       </c>
       <c r="D32">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E32">
-        <v>3.87318125556399E-2</v>
+        <v>7.0994104911257697E-2</v>
       </c>
       <c r="F32">
-        <v>0.126096461381457</v>
+        <v>0.25844257454645397</v>
       </c>
       <c r="G32">
-        <v>0.60109341218221002</v>
+        <v>1.362065481461</v>
       </c>
       <c r="H32">
         <v>0.80363936637881905</v>
@@ -2125,37 +2085,37 @@
         <v>200000</v>
       </c>
       <c r="C33">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D33">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E33">
-        <v>5.2845751883761602E-2</v>
+        <v>3.87318125556399E-2</v>
       </c>
       <c r="F33">
-        <v>0.16035901634913</v>
+        <v>0.126096461381457</v>
       </c>
       <c r="G33">
-        <v>0.68717506536054895</v>
+        <v>0.60109341218221002</v>
       </c>
       <c r="H33">
-        <v>0.82817165454011799</v>
+        <v>0.80363936637881905</v>
       </c>
       <c r="I33">
-        <v>0.81157470837082801</v>
+        <v>0.79165490945321204</v>
       </c>
       <c r="J33">
-        <v>0.80322847595234403</v>
+        <v>0.78036946383481798</v>
       </c>
       <c r="K33">
-        <v>208.5248</v>
+        <v>222.59229999999999</v>
       </c>
       <c r="L33">
-        <v>905.40920000000006</v>
+        <v>969.58019999999999</v>
       </c>
       <c r="M33">
-        <v>832.21389999999997</v>
+        <v>822.18700000000001</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
@@ -2169,16 +2129,16 @@
         <v>1500</v>
       </c>
       <c r="D34">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E34">
-        <v>2.7825141796829499E-2</v>
+        <v>5.2845751883761602E-2</v>
       </c>
       <c r="F34">
-        <v>7.8648367984211001E-2</v>
+        <v>0.16035901634913</v>
       </c>
       <c r="G34">
-        <v>0.27658112855796102</v>
+        <v>0.68717506536054895</v>
       </c>
       <c r="H34">
         <v>0.82817165454011799</v>
@@ -2207,37 +2167,37 @@
         <v>200000</v>
       </c>
       <c r="C35">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D35">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E35">
-        <v>4.40796690776738E-2</v>
+        <v>2.7825141796829499E-2</v>
       </c>
       <c r="F35">
-        <v>0.115197428061769</v>
+        <v>7.8648367984211001E-2</v>
       </c>
       <c r="G35">
-        <v>0.92542175560056406</v>
+        <v>0.27658112855796102</v>
       </c>
       <c r="H35">
-        <v>0.84773099977303801</v>
+        <v>0.82817165454011799</v>
       </c>
       <c r="I35">
-        <v>0.82930068323599504</v>
+        <v>0.81157470837082801</v>
       </c>
       <c r="J35">
-        <v>0.82285421234420897</v>
+        <v>0.80322847595234403</v>
       </c>
       <c r="K35">
-        <v>200.53319999999999</v>
+        <v>208.5248</v>
       </c>
       <c r="L35">
-        <v>876.33100000000002</v>
+        <v>905.40920000000006</v>
       </c>
       <c r="M35">
-        <v>867.27509999999995</v>
+        <v>832.21389999999997</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
@@ -2251,16 +2211,16 @@
         <v>2000</v>
       </c>
       <c r="D36">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E36">
-        <v>2.35525470770813E-2</v>
+        <v>4.40796690776738E-2</v>
       </c>
       <c r="F36">
-        <v>5.5286247282207601E-2</v>
+        <v>0.115197428061769</v>
       </c>
       <c r="G36">
-        <v>0.26769536777215802</v>
+        <v>0.92542175560056406</v>
       </c>
       <c r="H36">
         <v>0.84773099977303801</v>
@@ -2289,37 +2249,37 @@
         <v>200000</v>
       </c>
       <c r="C37">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D37">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E37">
-        <v>3.7535010027989903E-2</v>
+        <v>2.35525470770813E-2</v>
       </c>
       <c r="F37">
-        <v>8.7639091233750299E-2</v>
+        <v>5.5286247282207601E-2</v>
       </c>
       <c r="G37">
-        <v>0.98084458409647202</v>
+        <v>0.26769536777215802</v>
       </c>
       <c r="H37">
-        <v>0.86368498904331903</v>
+        <v>0.84773099977303801</v>
       </c>
       <c r="I37">
-        <v>0.84554621044417799</v>
+        <v>0.82930068323599504</v>
       </c>
       <c r="J37">
-        <v>0.83968224082466503</v>
+        <v>0.82285421234420897</v>
       </c>
       <c r="K37">
-        <v>199.53039999999999</v>
+        <v>200.53319999999999</v>
       </c>
       <c r="L37">
-        <v>909.39170000000001</v>
+        <v>876.33100000000002</v>
       </c>
       <c r="M37">
-        <v>944.54089999999997</v>
+        <v>867.27509999999995</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
@@ -2333,16 +2293,16 @@
         <v>2500</v>
       </c>
       <c r="D38">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E38">
-        <v>1.81000013087208E-2</v>
+        <v>3.7535010027989903E-2</v>
       </c>
       <c r="F38">
-        <v>4.2080328062108999E-2</v>
+        <v>8.7639091233750299E-2</v>
       </c>
       <c r="G38">
-        <v>0.240405283327907</v>
+        <v>0.98084458409647202</v>
       </c>
       <c r="H38">
         <v>0.86368498904331903</v>
@@ -2371,37 +2331,37 @@
         <v>200000</v>
       </c>
       <c r="C39">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="D39">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E39">
-        <v>3.33371232368204E-2</v>
+        <v>1.81000013087208E-2</v>
       </c>
       <c r="F39">
-        <v>6.8509454482929097E-2</v>
+        <v>4.2080328062108999E-2</v>
       </c>
       <c r="G39">
-        <v>0.43525266701416598</v>
+        <v>0.240405283327907</v>
       </c>
       <c r="H39">
-        <v>0.87695966318061402</v>
+        <v>0.86368498904331903</v>
       </c>
       <c r="I39">
-        <v>0.86076807535062205</v>
+        <v>0.84554621044417799</v>
       </c>
       <c r="J39">
-        <v>0.85490933829091498</v>
+        <v>0.83968224082466503</v>
       </c>
       <c r="K39">
-        <v>219.60919999999999</v>
+        <v>199.53039999999999</v>
       </c>
       <c r="L39">
-        <v>860.28840000000002</v>
+        <v>909.39170000000001</v>
       </c>
       <c r="M39">
-        <v>909.39089999999999</v>
+        <v>944.54089999999997</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
@@ -2415,16 +2375,16 @@
         <v>3000</v>
       </c>
       <c r="D40">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E40">
-        <v>1.5837819188765801E-2</v>
+        <v>3.33371232368204E-2</v>
       </c>
       <c r="F40">
-        <v>3.33896136160301E-2</v>
+        <v>6.8509454482929097E-2</v>
       </c>
       <c r="G40">
-        <v>0.345887777500897</v>
+        <v>0.43525266701416598</v>
       </c>
       <c r="H40">
         <v>0.87695966318061402</v>
@@ -2450,40 +2410,40 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="C41">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D41">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E41">
-        <v>8.6150018632383696E-2</v>
+        <v>1.5837819188765801E-2</v>
       </c>
       <c r="F41">
-        <v>0.32919880386651701</v>
+        <v>3.33896136160301E-2</v>
       </c>
       <c r="G41">
-        <v>2.2881525966364502</v>
+        <v>0.345887777500897</v>
       </c>
       <c r="H41">
-        <v>0.79029304255871802</v>
+        <v>0.87695966318061402</v>
       </c>
       <c r="I41">
-        <v>0.78007792847117996</v>
+        <v>0.86076807535062205</v>
       </c>
       <c r="J41">
-        <v>0.76799815590332998</v>
+        <v>0.85490933829091498</v>
       </c>
       <c r="K41">
-        <v>255.71289999999999</v>
+        <v>219.60919999999999</v>
       </c>
       <c r="L41">
-        <v>1123.9792</v>
+        <v>860.28840000000002</v>
       </c>
       <c r="M41">
-        <v>959.5625</v>
+        <v>909.39089999999999</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
@@ -2497,16 +2457,16 @@
         <v>1000</v>
       </c>
       <c r="D42">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E42">
-        <v>4.7332799560927903E-2</v>
+        <v>8.6150018632383696E-2</v>
       </c>
       <c r="F42">
-        <v>0.164413213027822</v>
+        <v>0.32919880386651701</v>
       </c>
       <c r="G42">
-        <v>0.72239658322723399</v>
+        <v>2.2881525966364502</v>
       </c>
       <c r="H42">
         <v>0.79029304255871802</v>
@@ -2535,37 +2495,37 @@
         <v>250000</v>
       </c>
       <c r="C43">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D43">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E43">
-        <v>6.1529996420646299E-2</v>
+        <v>4.7332799560927903E-2</v>
       </c>
       <c r="F43">
-        <v>0.20891022383855001</v>
+        <v>0.164413213027822</v>
       </c>
       <c r="G43">
-        <v>1.3977382964201699</v>
+        <v>0.72239658322723399</v>
       </c>
       <c r="H43">
-        <v>0.812567894756416</v>
+        <v>0.79029304255871802</v>
       </c>
       <c r="I43">
-        <v>0.79831041360159605</v>
+        <v>0.78007792847117996</v>
       </c>
       <c r="J43">
-        <v>0.78835420483542995</v>
+        <v>0.76799815590332998</v>
       </c>
       <c r="K43">
-        <v>261.69580000000002</v>
+        <v>255.71289999999999</v>
       </c>
       <c r="L43">
-        <v>1166.0742</v>
+        <v>1123.9792</v>
       </c>
       <c r="M43">
-        <v>1014.6992</v>
+        <v>959.5625</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
@@ -2579,16 +2539,16 @@
         <v>1500</v>
       </c>
       <c r="D44">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E44">
-        <v>3.3990564657964802E-2</v>
+        <v>6.1529996420646299E-2</v>
       </c>
       <c r="F44">
-        <v>0.103038069731065</v>
+        <v>0.20891022383855001</v>
       </c>
       <c r="G44">
-        <v>0.64340687658975804</v>
+        <v>1.3977382964201699</v>
       </c>
       <c r="H44">
         <v>0.812567894756416</v>
@@ -2617,37 +2577,37 @@
         <v>250000</v>
       </c>
       <c r="C45">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D45">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E45">
-        <v>5.2166362478595601E-2</v>
+        <v>3.3990564657964802E-2</v>
       </c>
       <c r="F45">
-        <v>0.14979459610811599</v>
+        <v>0.103038069731065</v>
       </c>
       <c r="G45">
-        <v>0.88517444944866097</v>
+        <v>0.64340687658975804</v>
       </c>
       <c r="H45">
-        <v>0.83107722997092204</v>
+        <v>0.812567894756416</v>
       </c>
       <c r="I45">
-        <v>0.81352844966426996</v>
+        <v>0.79831041360159605</v>
       </c>
       <c r="J45">
-        <v>0.80562522328070396</v>
+        <v>0.78835420483542995</v>
       </c>
       <c r="K45">
-        <v>249.6644</v>
+        <v>261.69580000000002</v>
       </c>
       <c r="L45">
-        <v>1176.1291000000001</v>
+        <v>1166.0742</v>
       </c>
       <c r="M45">
-        <v>1061.8561999999999</v>
+        <v>1014.6992</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
@@ -2661,16 +2621,16 @@
         <v>2000</v>
       </c>
       <c r="D46">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E46">
-        <v>2.2983372262063199E-2</v>
+        <v>5.2166362478595601E-2</v>
       </c>
       <c r="F46">
-        <v>7.4050215842529299E-2</v>
+        <v>0.14979459610811599</v>
       </c>
       <c r="G46">
-        <v>0.57628381726400901</v>
+        <v>0.88517444944866097</v>
       </c>
       <c r="H46">
         <v>0.83107722997092204</v>
@@ -2699,37 +2659,37 @@
         <v>250000</v>
       </c>
       <c r="C47">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D47">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E47">
-        <v>4.7402350554778899E-2</v>
+        <v>2.2983372262063199E-2</v>
       </c>
       <c r="F47">
-        <v>0.11349792503417</v>
+        <v>7.4050215842529299E-2</v>
       </c>
       <c r="G47">
-        <v>0.99155163153417802</v>
+        <v>0.57628381726400901</v>
       </c>
       <c r="H47">
-        <v>0.84640513766097303</v>
+        <v>0.83107722997092204</v>
       </c>
       <c r="I47">
-        <v>0.82779916391107</v>
+        <v>0.81352844966426996</v>
       </c>
       <c r="J47">
-        <v>0.82104436784179102</v>
+        <v>0.80562522328070396</v>
       </c>
       <c r="K47">
-        <v>263.70310000000001</v>
+        <v>249.6644</v>
       </c>
       <c r="L47">
-        <v>1272.3856000000001</v>
+        <v>1176.1291000000001</v>
       </c>
       <c r="M47">
-        <v>1118.9480000000001</v>
+        <v>1061.8561999999999</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
@@ -2743,16 +2703,16 @@
         <v>2500</v>
       </c>
       <c r="D48">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E48">
-        <v>2.2461868864088901E-2</v>
+        <v>4.7402350554778899E-2</v>
       </c>
       <c r="F48">
-        <v>5.5974075537494797E-2</v>
+        <v>0.11349792503417</v>
       </c>
       <c r="G48">
-        <v>0.62669971854937001</v>
+        <v>0.99155163153417802</v>
       </c>
       <c r="H48">
         <v>0.84640513766097303</v>
@@ -2781,37 +2741,37 @@
         <v>250000</v>
       </c>
       <c r="C49">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="D49">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E49">
-        <v>4.1283295501750798E-2</v>
+        <v>2.2461868864088901E-2</v>
       </c>
       <c r="F49">
-        <v>8.9807082552455994E-2</v>
+        <v>5.5974075537494797E-2</v>
       </c>
       <c r="G49">
-        <v>0.67808413645921695</v>
+        <v>0.62669971854937001</v>
       </c>
       <c r="H49">
-        <v>0.859442581949039</v>
+        <v>0.84640513766097303</v>
       </c>
       <c r="I49">
-        <v>0.84080369550333001</v>
+        <v>0.82779916391107</v>
       </c>
       <c r="J49">
-        <v>0.83465844965746905</v>
+        <v>0.82104436784179102</v>
       </c>
       <c r="K49">
-        <v>261.72660000000002</v>
+        <v>263.70310000000001</v>
       </c>
       <c r="L49">
-        <v>1130.0320999999999</v>
+        <v>1272.3856000000001</v>
       </c>
       <c r="M49">
-        <v>1141.0353</v>
+        <v>1118.9480000000001</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
@@ -2825,16 +2785,16 @@
         <v>3000</v>
       </c>
       <c r="D50">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E50">
-        <v>2.0228726566254001E-2</v>
+        <v>4.1283295501750798E-2</v>
       </c>
       <c r="F50">
-        <v>4.5010852464212603E-2</v>
+        <v>8.9807082552455994E-2</v>
       </c>
       <c r="G50">
-        <v>0.26274604072420599</v>
+        <v>0.67808413645921695</v>
       </c>
       <c r="H50">
         <v>0.859442581949039</v>
@@ -2860,40 +2820,40 @@
         <v>1</v>
       </c>
       <c r="B51">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="C51">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D51">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E51">
-        <v>9.4680581009902606E-2</v>
+        <v>2.0228726566254001E-2</v>
       </c>
       <c r="F51">
-        <v>0.401345341257558</v>
+        <v>4.5010852464212603E-2</v>
       </c>
       <c r="G51">
-        <v>2.2227076337137102</v>
+        <v>0.26274604072420599</v>
       </c>
       <c r="H51">
-        <v>0.781375847932398</v>
+        <v>0.859442581949039</v>
       </c>
       <c r="I51">
-        <v>0.77204950650210002</v>
+        <v>0.84080369550333001</v>
       </c>
       <c r="J51">
-        <v>0.75902761010554998</v>
+        <v>0.83465844965746905</v>
       </c>
       <c r="K51">
-        <v>347.92520000000002</v>
+        <v>261.72660000000002</v>
       </c>
       <c r="L51">
-        <v>1508.0399</v>
+        <v>1130.0320999999999</v>
       </c>
       <c r="M51">
-        <v>1244.3116</v>
+        <v>1141.0353</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
@@ -2907,16 +2867,16 @@
         <v>1000</v>
       </c>
       <c r="D52">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E52">
-        <v>5.2482206943567297E-2</v>
+        <v>9.4680581009902606E-2</v>
       </c>
       <c r="F52">
-        <v>0.20248186145981001</v>
+        <v>0.401345341257558</v>
       </c>
       <c r="G52">
-        <v>1.10006238569863</v>
+        <v>2.2227076337137102</v>
       </c>
       <c r="H52">
         <v>0.781375847932398</v>
@@ -2945,37 +2905,37 @@
         <v>300000</v>
       </c>
       <c r="C53">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D53">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E53">
-        <v>7.4005665461811004E-2</v>
+        <v>5.2482206943567297E-2</v>
       </c>
       <c r="F53">
-        <v>0.25510036303334199</v>
+        <v>0.20248186145981001</v>
       </c>
       <c r="G53">
-        <v>1.0721012434175901</v>
+        <v>1.10006238569863</v>
       </c>
       <c r="H53">
-        <v>0.80172469233018595</v>
+        <v>0.781375847932398</v>
       </c>
       <c r="I53">
-        <v>0.78935465692143902</v>
+        <v>0.77204950650210002</v>
       </c>
       <c r="J53">
-        <v>0.77813771461729098</v>
+        <v>0.75902761010554998</v>
       </c>
       <c r="K53">
-        <v>334.89139999999998</v>
+        <v>347.92520000000002</v>
       </c>
       <c r="L53">
-        <v>1708.5450000000001</v>
+        <v>1508.0399</v>
       </c>
       <c r="M53">
-        <v>1496.9835</v>
+        <v>1244.3116</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
@@ -2989,16 +2949,16 @@
         <v>1500</v>
       </c>
       <c r="D54">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E54">
-        <v>3.7648941399420502E-2</v>
+        <v>7.4005665461811004E-2</v>
       </c>
       <c r="F54">
-        <v>0.12798332127363099</v>
+        <v>0.25510036303334199</v>
       </c>
       <c r="G54">
-        <v>0.45616278950509198</v>
+        <v>1.0721012434175901</v>
       </c>
       <c r="H54">
         <v>0.80172469233018595</v>
@@ -3027,37 +2987,37 @@
         <v>300000</v>
       </c>
       <c r="C55">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D55">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E55">
-        <v>6.24642320946995E-2</v>
+        <v>3.7648941399420502E-2</v>
       </c>
       <c r="F55">
-        <v>0.18389531262400599</v>
+        <v>0.12798332127363099</v>
       </c>
       <c r="G55">
-        <v>1.0004187677682199</v>
+        <v>0.45616278950509198</v>
       </c>
       <c r="H55">
-        <v>0.81840544676107696</v>
+        <v>0.80172469233018595</v>
       </c>
       <c r="I55">
-        <v>0.80319501771723301</v>
+        <v>0.78935465692143902</v>
       </c>
       <c r="J55">
-        <v>0.79417279427947296</v>
+        <v>0.77813771461729098</v>
       </c>
       <c r="K55">
-        <v>330.9128</v>
+        <v>334.89139999999998</v>
       </c>
       <c r="L55">
-        <v>1523.0537999999999</v>
+        <v>1708.5450000000001</v>
       </c>
       <c r="M55">
-        <v>1388.6914999999999</v>
+        <v>1496.9835</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
@@ -3071,16 +3031,16 @@
         <v>2000</v>
       </c>
       <c r="D56">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E56">
-        <v>3.5304249824056999E-2</v>
+        <v>6.24642320946995E-2</v>
       </c>
       <c r="F56">
-        <v>9.1285311417910506E-2</v>
+        <v>0.18389531262400599</v>
       </c>
       <c r="G56">
-        <v>0.41447040342885999</v>
+        <v>1.0004187677682199</v>
       </c>
       <c r="H56">
         <v>0.81840544676107696</v>
@@ -3109,37 +3069,37 @@
         <v>300000</v>
       </c>
       <c r="C57">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D57">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E57">
-        <v>4.9616613678314297E-2</v>
+        <v>3.5304249824056999E-2</v>
       </c>
       <c r="F57">
-        <v>0.14062814918177699</v>
+        <v>9.1285311417910506E-2</v>
       </c>
       <c r="G57">
-        <v>1.53365536355267</v>
+        <v>0.41447040342885999</v>
       </c>
       <c r="H57">
-        <v>0.83347791611279198</v>
+        <v>0.81840544676107696</v>
       </c>
       <c r="I57">
-        <v>0.81566677748282901</v>
+        <v>0.80319501771723301</v>
       </c>
       <c r="J57">
-        <v>0.80802774070442496</v>
+        <v>0.79417279427947296</v>
       </c>
       <c r="K57">
-        <v>411.09339999999997</v>
+        <v>330.9128</v>
       </c>
       <c r="L57">
-        <v>1572.1844000000001</v>
+        <v>1523.0537999999999</v>
       </c>
       <c r="M57">
-        <v>1499.9922999999999</v>
+        <v>1388.6914999999999</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
@@ -3153,16 +3113,16 @@
         <v>2500</v>
       </c>
       <c r="D58">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E58">
-        <v>2.5506625259111699E-2</v>
+        <v>4.9616613678314297E-2</v>
       </c>
       <c r="F58">
-        <v>6.9590867324243494E-2</v>
+        <v>0.14062814918177699</v>
       </c>
       <c r="G58">
-        <v>0.35144952205108798</v>
+        <v>1.53365536355267</v>
       </c>
       <c r="H58">
         <v>0.83347791611279198</v>
@@ -3191,37 +3151,37 @@
         <v>300000</v>
       </c>
       <c r="C59">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="D59">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E59">
-        <v>4.4053129471882203E-2</v>
+        <v>2.5506625259111699E-2</v>
       </c>
       <c r="F59">
-        <v>0.111898685664411</v>
+        <v>6.9590867324243494E-2</v>
       </c>
       <c r="G59">
-        <v>1.1176382180853599</v>
+        <v>0.35144952205108798</v>
       </c>
       <c r="H59">
-        <v>0.84603906076823998</v>
+        <v>0.83347791611279198</v>
       </c>
       <c r="I59">
-        <v>0.82754669206503195</v>
+        <v>0.81566677748282901</v>
       </c>
       <c r="J59">
-        <v>0.82073296532871898</v>
+        <v>0.80802774070442496</v>
       </c>
       <c r="K59">
-        <v>315.84050000000002</v>
+        <v>411.09339999999997</v>
       </c>
       <c r="L59">
-        <v>1553.1323</v>
+        <v>1572.1844000000001</v>
       </c>
       <c r="M59">
-        <v>1403.7355</v>
+        <v>1499.9922999999999</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
@@ -3235,16 +3195,16 @@
         <v>3000</v>
       </c>
       <c r="D60">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E60">
-        <v>2.36239622523024E-2</v>
+        <v>4.4053129471882203E-2</v>
       </c>
       <c r="F60">
-        <v>5.5775128957774402E-2</v>
+        <v>0.111898685664411</v>
       </c>
       <c r="G60">
-        <v>0.86920790857583596</v>
+        <v>1.1176382180853599</v>
       </c>
       <c r="H60">
         <v>0.84603906076823998</v>
@@ -3265,8 +3225,49 @@
         <v>1403.7355</v>
       </c>
     </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>300000</v>
+      </c>
+      <c r="C61">
+        <v>3000</v>
+      </c>
+      <c r="D61">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E61">
+        <v>2.36239622523024E-2</v>
+      </c>
+      <c r="F61">
+        <v>5.5775128957774402E-2</v>
+      </c>
+      <c r="G61">
+        <v>0.86920790857583596</v>
+      </c>
+      <c r="H61">
+        <v>0.84603906076823998</v>
+      </c>
+      <c r="I61">
+        <v>0.82754669206503195</v>
+      </c>
+      <c r="J61">
+        <v>0.82073296532871898</v>
+      </c>
+      <c r="K61">
+        <v>315.84050000000002</v>
+      </c>
+      <c r="L61">
+        <v>1553.1323</v>
+      </c>
+      <c r="M61">
+        <v>1403.7355</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M33"/>
+  <autoFilter ref="A1:M1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3274,463 +3275,423 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M48"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:M61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>100000</v>
-      </c>
-      <c r="C1">
-        <v>1500</v>
-      </c>
-      <c r="D1">
-        <v>0.01</v>
-      </c>
-      <c r="E1">
-        <v>2.1756834711891101E-2</v>
-      </c>
-      <c r="F1">
-        <v>1.3295448681361399E-2</v>
-      </c>
-      <c r="G1">
-        <v>0.43011516636335001</v>
-      </c>
-      <c r="H1">
-        <v>0.93200517131133498</v>
-      </c>
-      <c r="I1">
-        <v>0.94966720449553199</v>
-      </c>
-      <c r="J1">
-        <v>0.93296642630148197</v>
-      </c>
-      <c r="K1">
-        <v>127.3312</v>
-      </c>
-      <c r="L1">
-        <v>251.66470000000001</v>
-      </c>
-      <c r="M1">
-        <v>341.91340000000002</v>
-      </c>
-    </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>0.01</v>
+      </c>
+      <c r="E2">
+        <v>3.31265160975159E-2</v>
+      </c>
+      <c r="F2">
+        <v>3.7818766588433098E-2</v>
+      </c>
+      <c r="G2">
+        <v>8.0975045689727299E-2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0.99998797757527602</v>
+      </c>
+      <c r="K2">
+        <v>99.264499999999998</v>
+      </c>
+      <c r="L2">
+        <v>148.39420000000001</v>
+      </c>
+      <c r="M2">
+        <v>238.63489999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>50000</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E3">
+        <v>1.70932288505612E-2</v>
+      </c>
+      <c r="F3">
+        <v>1.8835622671263499E-2</v>
+      </c>
+      <c r="G3">
+        <v>5.5581946618074599E-2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.99998797757527602</v>
+      </c>
+      <c r="K3">
+        <v>99.264499999999998</v>
+      </c>
+      <c r="L3">
+        <v>148.39420000000001</v>
+      </c>
+      <c r="M3">
+        <v>238.63489999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>50000</v>
+      </c>
+      <c r="C4">
         <v>1500</v>
       </c>
-      <c r="D2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E2">
-        <v>1.04046010958625E-2</v>
-      </c>
-      <c r="F2">
-        <v>6.7551549915272503E-3</v>
-      </c>
-      <c r="G2">
-        <v>0.358889400956935</v>
-      </c>
-      <c r="H2">
-        <v>0.93200517131133498</v>
-      </c>
-      <c r="I2">
-        <v>0.94966720449553199</v>
-      </c>
-      <c r="J2">
-        <v>0.93296642630148197</v>
-      </c>
-      <c r="K2">
-        <v>127.3312</v>
-      </c>
-      <c r="L2">
-        <v>251.66470000000001</v>
-      </c>
-      <c r="M2">
-        <v>341.91340000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>100000</v>
-      </c>
-      <c r="C3">
+      <c r="D4">
+        <v>0.01</v>
+      </c>
+      <c r="E4">
+        <v>3.53228943261822E-2</v>
+      </c>
+      <c r="F4">
+        <v>3.7818766588433098E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.19469744449403001</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.999988784888733</v>
+      </c>
+      <c r="K4">
+        <v>77.205100000000002</v>
+      </c>
+      <c r="L4">
+        <v>87.225300000000004</v>
+      </c>
+      <c r="M4">
+        <v>157.45060000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>50000</v>
+      </c>
+      <c r="C5">
+        <v>1500</v>
+      </c>
+      <c r="D5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E5">
+        <v>1.7599195657662201E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.8835622671263499E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.5892212137392501E-2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.999988784888733</v>
+      </c>
+      <c r="K5">
+        <v>77.205100000000002</v>
+      </c>
+      <c r="L5">
+        <v>87.225300000000004</v>
+      </c>
+      <c r="M5">
+        <v>157.45060000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>50000</v>
+      </c>
+      <c r="C6">
         <v>2000</v>
       </c>
-      <c r="D3">
-        <v>0.01</v>
-      </c>
-      <c r="E3">
-        <v>1.92002462522518E-2</v>
-      </c>
-      <c r="F3">
-        <v>6.0278955346994003E-3</v>
-      </c>
-      <c r="G3">
-        <v>0.120732554824383</v>
-      </c>
-      <c r="H3">
-        <v>0.941627677503036</v>
-      </c>
-      <c r="I3">
-        <v>0.96584508825932003</v>
-      </c>
-      <c r="J3">
-        <v>0.96539213617669895</v>
-      </c>
-      <c r="K3">
-        <v>131.3175</v>
-      </c>
-      <c r="L3">
-        <v>187.5266</v>
-      </c>
-      <c r="M3">
-        <v>272.72570000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>100000</v>
-      </c>
-      <c r="C4">
+      <c r="D6">
+        <v>0.01</v>
+      </c>
+      <c r="E6">
+        <v>3.6441460948970897E-2</v>
+      </c>
+      <c r="F6">
+        <v>3.7818766588433098E-2</v>
+      </c>
+      <c r="G6">
+        <v>5.8490891379660397E-2</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.99999367240804005</v>
+      </c>
+      <c r="K6">
+        <v>73.223699999999994</v>
+      </c>
+      <c r="L6">
+        <v>86.196200000000005</v>
+      </c>
+      <c r="M6">
+        <v>133.3571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>50000</v>
+      </c>
+      <c r="C7">
         <v>2000</v>
       </c>
-      <c r="D4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E4">
-        <v>1.00944272754368E-2</v>
-      </c>
-      <c r="F4">
-        <v>3.36541861873778E-3</v>
-      </c>
-      <c r="G4">
-        <v>8.8687145682013205E-2</v>
-      </c>
-      <c r="H4">
-        <v>0.941627677503036</v>
-      </c>
-      <c r="I4">
-        <v>0.96584508825932003</v>
-      </c>
-      <c r="J4">
-        <v>0.96539213617669895</v>
-      </c>
-      <c r="K4">
-        <v>131.3175</v>
-      </c>
-      <c r="L4">
-        <v>187.5266</v>
-      </c>
-      <c r="M4">
-        <v>272.72570000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>100000</v>
-      </c>
-      <c r="C5">
+      <c r="D7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E7">
+        <v>1.7957051041655001E-2</v>
+      </c>
+      <c r="F7">
+        <v>1.8835622671263499E-2</v>
+      </c>
+      <c r="G7">
+        <v>2.2219111528717601E-2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.99999367240804005</v>
+      </c>
+      <c r="K7">
+        <v>73.223699999999994</v>
+      </c>
+      <c r="L7">
+        <v>86.196200000000005</v>
+      </c>
+      <c r="M7">
+        <v>133.3571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>50000</v>
+      </c>
+      <c r="C8">
         <v>2500</v>
       </c>
-      <c r="D5">
-        <v>0.01</v>
-      </c>
-      <c r="E5">
-        <v>1.5466570156142501E-2</v>
-      </c>
-      <c r="F5">
-        <v>6.6465684347265996E-3</v>
-      </c>
-      <c r="G5">
-        <v>7.1316992205199506E-2</v>
-      </c>
-      <c r="H5">
-        <v>0.94534168119788398</v>
-      </c>
-      <c r="I5">
-        <v>0.96208592652125402</v>
-      </c>
-      <c r="J5">
-        <v>0.96176516133707202</v>
-      </c>
-      <c r="K5">
-        <v>131.3493</v>
-      </c>
-      <c r="L5">
-        <v>171.49100000000001</v>
-      </c>
-      <c r="M5">
-        <v>273.69569999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>100000</v>
-      </c>
-      <c r="C6">
+      <c r="D8">
+        <v>0.01</v>
+      </c>
+      <c r="E8">
+        <v>3.8051328088961098E-2</v>
+      </c>
+      <c r="F8">
+        <v>3.7818766588433098E-2</v>
+      </c>
+      <c r="G8">
+        <v>4.2957076170618398E-2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.99999672710760701</v>
+      </c>
+      <c r="K8">
+        <v>85.225499999999997</v>
+      </c>
+      <c r="L8">
+        <v>89.238100000000003</v>
+      </c>
+      <c r="M8">
+        <v>160.45519999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>50000</v>
+      </c>
+      <c r="C9">
         <v>2500</v>
       </c>
-      <c r="D6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E6">
-        <v>7.4214051306946303E-3</v>
-      </c>
-      <c r="F6">
-        <v>3.3630646843838701E-3</v>
-      </c>
-      <c r="G6">
-        <v>3.53047878558536E-2</v>
-      </c>
-      <c r="H6">
-        <v>0.94534168119788398</v>
-      </c>
-      <c r="I6">
-        <v>0.96208592652125402</v>
-      </c>
-      <c r="J6">
-        <v>0.96176516133707202</v>
-      </c>
-      <c r="K6">
-        <v>131.3493</v>
-      </c>
-      <c r="L6">
-        <v>171.49100000000001</v>
-      </c>
-      <c r="M6">
-        <v>273.69569999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>100000</v>
-      </c>
-      <c r="C7">
+      <c r="D9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E9">
+        <v>1.8201271819599601E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.8835622671263499E-2</v>
+      </c>
+      <c r="G9">
+        <v>2.22612101510316E-2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.99999672710760701</v>
+      </c>
+      <c r="K9">
+        <v>85.225499999999997</v>
+      </c>
+      <c r="L9">
+        <v>89.238100000000003</v>
+      </c>
+      <c r="M9">
+        <v>160.45519999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>50000</v>
+      </c>
+      <c r="C10">
         <v>3000</v>
       </c>
-      <c r="D7">
-        <v>0.01</v>
-      </c>
-      <c r="E7">
-        <v>1.4952640628879001E-2</v>
-      </c>
-      <c r="F7">
-        <v>7.3484817168028901E-3</v>
-      </c>
-      <c r="G7">
-        <v>5.4001810344324601E-2</v>
-      </c>
-      <c r="H7">
-        <v>0.94730104837134699</v>
-      </c>
-      <c r="I7">
-        <v>0.95947198647571597</v>
-      </c>
-      <c r="J7">
-        <v>0.95907106251306296</v>
-      </c>
-      <c r="K7">
-        <v>137.39320000000001</v>
-      </c>
-      <c r="L7">
-        <v>171.45570000000001</v>
-      </c>
-      <c r="M7">
-        <v>253.64680000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>100000</v>
-      </c>
-      <c r="C8">
+      <c r="D10">
+        <v>0.01</v>
+      </c>
+      <c r="E10">
+        <v>3.7374380302909099E-2</v>
+      </c>
+      <c r="F10">
+        <v>3.7818766588433098E-2</v>
+      </c>
+      <c r="G10">
+        <v>6.8819166507690099E-2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.99999687984258501</v>
+      </c>
+      <c r="K10">
+        <v>75.208200000000005</v>
+      </c>
+      <c r="L10">
+        <v>93.279200000000003</v>
+      </c>
+      <c r="M10">
+        <v>139.36949999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>50000</v>
+      </c>
+      <c r="C11">
         <v>3000</v>
       </c>
-      <c r="D8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E8">
-        <v>7.5152172449999E-3</v>
-      </c>
-      <c r="F8">
-        <v>3.5937073220717198E-3</v>
-      </c>
-      <c r="G8">
-        <v>2.30490580815562E-2</v>
-      </c>
-      <c r="H8">
-        <v>0.94730104837134699</v>
-      </c>
-      <c r="I8">
-        <v>0.95947198647571597</v>
-      </c>
-      <c r="J8">
-        <v>0.95907106251306296</v>
-      </c>
-      <c r="K8">
-        <v>137.39320000000001</v>
-      </c>
-      <c r="L8">
-        <v>171.45570000000001</v>
-      </c>
-      <c r="M8">
-        <v>253.64680000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>150000</v>
-      </c>
-      <c r="C9">
-        <v>1000</v>
-      </c>
-      <c r="D9">
-        <v>0.01</v>
-      </c>
-      <c r="E9">
-        <v>3.7783806607368298E-2</v>
-      </c>
-      <c r="F9">
-        <v>6.9114648262150802E-2</v>
-      </c>
-      <c r="G9">
-        <v>0.330474460973745</v>
-      </c>
-      <c r="H9">
-        <v>0.87639443189464905</v>
-      </c>
-      <c r="I9">
-        <v>0.85349914885263001</v>
-      </c>
-      <c r="J9">
-        <v>0.844760890876191</v>
-      </c>
-      <c r="K9">
-        <v>179.44820000000001</v>
-      </c>
-      <c r="L9">
-        <v>573.55520000000001</v>
-      </c>
-      <c r="M9">
-        <v>624.66179999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>150000</v>
-      </c>
-      <c r="C10">
-        <v>1000</v>
-      </c>
-      <c r="D10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E10">
-        <v>1.9411840801476399E-2</v>
-      </c>
-      <c r="F10">
-        <v>3.57965782366714E-2</v>
-      </c>
-      <c r="G10">
-        <v>0.26350823600357498</v>
-      </c>
-      <c r="H10">
-        <v>0.87639443189464905</v>
-      </c>
-      <c r="I10">
-        <v>0.85349914885263001</v>
-      </c>
-      <c r="J10">
-        <v>0.844760890876191</v>
-      </c>
-      <c r="K10">
-        <v>179.44820000000001</v>
-      </c>
-      <c r="L10">
-        <v>573.55520000000001</v>
-      </c>
-      <c r="M10">
-        <v>624.66179999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>150000</v>
-      </c>
-      <c r="C11">
-        <v>1500</v>
-      </c>
       <c r="D11">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E11">
-        <v>2.83644497981673E-2</v>
+        <v>1.8476732062344001E-2</v>
       </c>
       <c r="F11">
-        <v>3.5741117185897599E-2</v>
+        <v>1.8835622671263499E-2</v>
       </c>
       <c r="G11">
-        <v>0.38421394159141797</v>
+        <v>6.7003895370563102E-2</v>
       </c>
       <c r="H11">
-        <v>0.90712965886943397</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0.90507826777948697</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0.88736451387086102</v>
+        <v>0.99999687984258501</v>
       </c>
       <c r="K11">
-        <v>184.51910000000001</v>
+        <v>75.208200000000005</v>
       </c>
       <c r="L11">
-        <v>546.47720000000004</v>
+        <v>93.279200000000003</v>
       </c>
       <c r="M11">
-        <v>614.60850000000005</v>
+        <v>139.36949999999999</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -3738,409 +3699,409 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12">
+        <v>0.01</v>
+      </c>
+      <c r="E12">
+        <v>3.1339148670788998E-2</v>
+      </c>
+      <c r="F12">
+        <v>6.1235790849557402E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.20351546009385299</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.99998322093130998</v>
+      </c>
+      <c r="K12">
+        <v>125.3094</v>
+      </c>
+      <c r="L12">
+        <v>307.84949999999998</v>
+      </c>
+      <c r="M12">
+        <v>434.15429999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>100000</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E13">
+        <v>1.3718540103039E-2</v>
+      </c>
+      <c r="F13">
+        <v>3.0703914148527699E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.123419529488695</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.99998322093130998</v>
+      </c>
+      <c r="K13">
+        <v>125.3094</v>
+      </c>
+      <c r="L13">
+        <v>307.84949999999998</v>
+      </c>
+      <c r="M13">
+        <v>434.15429999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>100000</v>
+      </c>
+      <c r="C14">
         <v>1500</v>
       </c>
-      <c r="D12">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E12">
-        <v>1.47948571532507E-2</v>
-      </c>
-      <c r="F12">
-        <v>1.7902365082798199E-2</v>
-      </c>
-      <c r="G12">
-        <v>0.127898622326414</v>
-      </c>
-      <c r="H12">
-        <v>0.90712965886943397</v>
-      </c>
-      <c r="I12">
-        <v>0.90507826777948697</v>
-      </c>
-      <c r="J12">
-        <v>0.88736451387086102</v>
-      </c>
-      <c r="K12">
-        <v>184.51910000000001</v>
-      </c>
-      <c r="L12">
-        <v>546.47720000000004</v>
-      </c>
-      <c r="M12">
-        <v>614.60850000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>150000</v>
-      </c>
-      <c r="C13">
+      <c r="D14">
+        <v>0.01</v>
+      </c>
+      <c r="E14">
+        <v>3.0527528848367801E-2</v>
+      </c>
+      <c r="F14">
+        <v>4.1899991157227298E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.25959194082487702</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.99998577503901798</v>
+      </c>
+      <c r="K14">
+        <v>144.3897</v>
+      </c>
+      <c r="L14">
+        <v>248.6917</v>
+      </c>
+      <c r="M14">
+        <v>337.86430000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>100000</v>
+      </c>
+      <c r="C15">
+        <v>1500</v>
+      </c>
+      <c r="D15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E15">
+        <v>1.5988465981341099E-2</v>
+      </c>
+      <c r="F15">
+        <v>2.1085025040192499E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.140638490257428</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.99998577503901798</v>
+      </c>
+      <c r="K15">
+        <v>144.3897</v>
+      </c>
+      <c r="L15">
+        <v>248.6917</v>
+      </c>
+      <c r="M15">
+        <v>337.86430000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>100000</v>
+      </c>
+      <c r="C16">
         <v>2000</v>
       </c>
-      <c r="D13">
-        <v>0.01</v>
-      </c>
-      <c r="E13">
-        <v>2.5635758219872198E-2</v>
-      </c>
-      <c r="F13">
-        <v>1.9249983428103301E-2</v>
-      </c>
-      <c r="G13">
-        <v>0.16549075399230101</v>
-      </c>
-      <c r="H13">
-        <v>0.92399386373117698</v>
-      </c>
-      <c r="I13">
-        <v>0.94051279853122205</v>
-      </c>
-      <c r="J13">
-        <v>0.91926373976588904</v>
-      </c>
-      <c r="K13">
-        <v>203.5325</v>
-      </c>
-      <c r="L13">
-        <v>451.1678</v>
-      </c>
-      <c r="M13">
-        <v>566.51130000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>150000</v>
-      </c>
-      <c r="C14">
+      <c r="D16">
+        <v>0.01</v>
+      </c>
+      <c r="E16">
+        <v>3.3917759697971998E-2</v>
+      </c>
+      <c r="F16">
+        <v>3.7855464085337097E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.36051242997313399</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.99996313098225797</v>
+      </c>
+      <c r="K16">
+        <v>166.40950000000001</v>
+      </c>
+      <c r="L16">
+        <v>177.43870000000001</v>
+      </c>
+      <c r="M16">
+        <v>277.77050000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>100000</v>
+      </c>
+      <c r="C17">
         <v>2000</v>
       </c>
-      <c r="D14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E14">
-        <v>1.35719137098534E-2</v>
-      </c>
-      <c r="F14">
-        <v>1.06040276978143E-2</v>
-      </c>
-      <c r="G14">
-        <v>0.201085871251519</v>
-      </c>
-      <c r="H14">
-        <v>0.92399386373117698</v>
-      </c>
-      <c r="I14">
-        <v>0.94051279853122205</v>
-      </c>
-      <c r="J14">
-        <v>0.91926373976588904</v>
-      </c>
-      <c r="K14">
-        <v>203.5325</v>
-      </c>
-      <c r="L14">
-        <v>451.1678</v>
-      </c>
-      <c r="M14">
-        <v>566.51130000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>150000</v>
-      </c>
-      <c r="C15">
+      <c r="D17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E17">
+        <v>1.63550274088437E-2</v>
+      </c>
+      <c r="F17">
+        <v>1.8874650610146902E-2</v>
+      </c>
+      <c r="G17">
+        <v>8.2155022427797098E-2</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.99996313098225797</v>
+      </c>
+      <c r="K17">
+        <v>166.40950000000001</v>
+      </c>
+      <c r="L17">
+        <v>177.43870000000001</v>
+      </c>
+      <c r="M17">
+        <v>277.77050000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>100000</v>
+      </c>
+      <c r="C18">
         <v>2500</v>
       </c>
-      <c r="D15">
-        <v>0.01</v>
-      </c>
-      <c r="E15">
-        <v>2.1580751947279399E-2</v>
-      </c>
-      <c r="F15">
-        <v>1.01512003269563E-2</v>
-      </c>
-      <c r="G15">
-        <v>0.24800602244102199</v>
-      </c>
-      <c r="H15">
-        <v>0.93456384832269701</v>
-      </c>
-      <c r="I15">
-        <v>0.95642158562684598</v>
-      </c>
-      <c r="J15">
-        <v>0.94657832945215303</v>
-      </c>
-      <c r="K15">
-        <v>197.5247</v>
-      </c>
-      <c r="L15">
-        <v>379.0369</v>
-      </c>
-      <c r="M15">
-        <v>485.29219999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>150000</v>
-      </c>
-      <c r="C16">
+      <c r="D18">
+        <v>0.01</v>
+      </c>
+      <c r="E18">
+        <v>3.4689742515685899E-2</v>
+      </c>
+      <c r="F18">
+        <v>3.7855464085337097E-2</v>
+      </c>
+      <c r="G18">
+        <v>7.7954762221340998E-2</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.99998651998709898</v>
+      </c>
+      <c r="K18">
+        <v>139.37010000000001</v>
+      </c>
+      <c r="L18">
+        <v>169.4539</v>
+      </c>
+      <c r="M18">
+        <v>283.78359999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>100000</v>
+      </c>
+      <c r="C19">
         <v>2500</v>
       </c>
-      <c r="D16">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E16">
-        <v>9.7746926222589906E-3</v>
-      </c>
-      <c r="F16">
-        <v>4.9359277204520597E-3</v>
-      </c>
-      <c r="G16">
-        <v>3.2976511543196099E-2</v>
-      </c>
-      <c r="H16">
-        <v>0.93456384832269701</v>
-      </c>
-      <c r="I16">
-        <v>0.95642158562684598</v>
-      </c>
-      <c r="J16">
-        <v>0.94657832945215303</v>
-      </c>
-      <c r="K16">
-        <v>197.5247</v>
-      </c>
-      <c r="L16">
-        <v>379.0369</v>
-      </c>
-      <c r="M16">
-        <v>485.29219999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>150000</v>
-      </c>
-      <c r="C17">
+      <c r="D19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E19">
+        <v>1.74720907258312E-2</v>
+      </c>
+      <c r="F19">
+        <v>1.8874650610146902E-2</v>
+      </c>
+      <c r="G19">
+        <v>3.3486574416337699E-2</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.99998651998709898</v>
+      </c>
+      <c r="K19">
+        <v>139.37010000000001</v>
+      </c>
+      <c r="L19">
+        <v>169.4539</v>
+      </c>
+      <c r="M19">
+        <v>283.78359999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>100000</v>
+      </c>
+      <c r="C20">
         <v>3000</v>
       </c>
-      <c r="D17">
-        <v>0.01</v>
-      </c>
-      <c r="E17">
-        <v>1.7365491791047401E-2</v>
-      </c>
-      <c r="F17">
-        <v>5.9837556329144703E-3</v>
-      </c>
-      <c r="G17">
-        <v>0.11971870002335</v>
-      </c>
-      <c r="H17">
-        <v>0.94012204891449602</v>
-      </c>
-      <c r="I17">
-        <v>0.96504254445275395</v>
-      </c>
-      <c r="J17">
-        <v>0.96467113615903899</v>
-      </c>
-      <c r="K17">
-        <v>218.58090000000001</v>
-      </c>
-      <c r="L17">
-        <v>269.71940000000001</v>
-      </c>
-      <c r="M17">
-        <v>435.75450000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>150000</v>
-      </c>
-      <c r="C18">
+      <c r="D20">
+        <v>0.01</v>
+      </c>
+      <c r="E20">
+        <v>3.5203796168500799E-2</v>
+      </c>
+      <c r="F20">
+        <v>3.7855464085337097E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.20011407091215</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.99998997276233303</v>
+      </c>
+      <c r="K20">
+        <v>166.41050000000001</v>
+      </c>
+      <c r="L20">
+        <v>177.44479999999999</v>
+      </c>
+      <c r="M20">
+        <v>269.74470000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>100000</v>
+      </c>
+      <c r="C21">
         <v>3000</v>
       </c>
-      <c r="D18">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E18">
-        <v>9.8681825623507108E-3</v>
-      </c>
-      <c r="F18">
-        <v>2.9954678413327E-3</v>
-      </c>
-      <c r="G18">
-        <v>3.16140237839646E-2</v>
-      </c>
-      <c r="H18">
-        <v>0.94012204891449602</v>
-      </c>
-      <c r="I18">
-        <v>0.96504254445275395</v>
-      </c>
-      <c r="J18">
-        <v>0.96467113615903899</v>
-      </c>
-      <c r="K18">
-        <v>218.58090000000001</v>
-      </c>
-      <c r="L18">
-        <v>269.71940000000001</v>
-      </c>
-      <c r="M18">
-        <v>435.75450000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>200000</v>
-      </c>
-      <c r="C19">
-        <v>1000</v>
-      </c>
-      <c r="D19">
-        <v>0.01</v>
-      </c>
-      <c r="E19">
-        <v>4.1196966218601298E-2</v>
-      </c>
-      <c r="F19">
-        <v>0.10233148598399</v>
-      </c>
-      <c r="G19">
-        <v>0.46613980537237198</v>
-      </c>
-      <c r="H19">
-        <v>0.85201805558334298</v>
-      </c>
-      <c r="I19">
-        <v>0.82555972084024498</v>
-      </c>
-      <c r="J19">
-        <v>0.81815373540677405</v>
-      </c>
-      <c r="K19">
-        <v>249.6645</v>
-      </c>
-      <c r="L19">
-        <v>856.87530000000004</v>
-      </c>
-      <c r="M19">
-        <v>878.47360000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>200000</v>
-      </c>
-      <c r="C20">
-        <v>1000</v>
-      </c>
-      <c r="D20">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E20">
-        <v>1.8701293072505901E-2</v>
-      </c>
-      <c r="F20">
-        <v>5.1602764330028E-2</v>
-      </c>
-      <c r="G20">
-        <v>0.257802183015716</v>
-      </c>
-      <c r="H20">
-        <v>0.85201805558334298</v>
-      </c>
-      <c r="I20">
-        <v>0.82555972084024498</v>
-      </c>
-      <c r="J20">
-        <v>0.81815373540677405</v>
-      </c>
-      <c r="K20">
-        <v>249.6645</v>
-      </c>
-      <c r="L20">
-        <v>856.87530000000004</v>
-      </c>
-      <c r="M20">
-        <v>878.47360000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>200000</v>
-      </c>
-      <c r="C21">
-        <v>1500</v>
-      </c>
       <c r="D21">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E21">
-        <v>3.0352440082367399E-2</v>
+        <v>1.76546335377296E-2</v>
       </c>
       <c r="F21">
-        <v>5.7958664842123898E-2</v>
+        <v>1.8874650610146902E-2</v>
       </c>
       <c r="G21">
-        <v>0.35331533358781197</v>
+        <v>5.7468567802102903E-2</v>
       </c>
       <c r="H21">
-        <v>0.88499955245109097</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0.86508413030078901</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0.85505837455334299</v>
+        <v>0.99998997276233303</v>
       </c>
       <c r="K21">
-        <v>248.67150000000001</v>
+        <v>166.41050000000001</v>
       </c>
       <c r="L21">
-        <v>876.35919999999999</v>
+        <v>177.44479999999999</v>
       </c>
       <c r="M21">
-        <v>940.5018</v>
+        <v>269.74470000000002</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
@@ -4148,409 +4109,409 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="C22">
+        <v>1000</v>
+      </c>
+      <c r="D22">
+        <v>0.01</v>
+      </c>
+      <c r="E22">
+        <v>2.6589056783899799E-2</v>
+      </c>
+      <c r="F22">
+        <v>9.4613626490490099E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.58701449222843105</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.99999774781756301</v>
+      </c>
+      <c r="K22">
+        <v>211.56270000000001</v>
+      </c>
+      <c r="L22">
+        <v>574.52719999999999</v>
+      </c>
+      <c r="M22">
+        <v>655.72770000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>150000</v>
+      </c>
+      <c r="C23">
+        <v>1000</v>
+      </c>
+      <c r="D23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E23">
+        <v>1.2421929254963099E-2</v>
+      </c>
+      <c r="F23">
+        <v>4.6452077550543501E-2</v>
+      </c>
+      <c r="G23">
+        <v>0.230199049582648</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.99999774781756301</v>
+      </c>
+      <c r="K23">
+        <v>211.56270000000001</v>
+      </c>
+      <c r="L23">
+        <v>574.52719999999999</v>
+      </c>
+      <c r="M23">
+        <v>655.72770000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>150000</v>
+      </c>
+      <c r="C24">
         <v>1500</v>
       </c>
-      <c r="D22">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E22">
-        <v>1.6511759746554899E-2</v>
-      </c>
-      <c r="F22">
-        <v>2.9155032816737099E-2</v>
-      </c>
-      <c r="G22">
-        <v>0.12105859738043501</v>
-      </c>
-      <c r="H22">
-        <v>0.88499955245109097</v>
-      </c>
-      <c r="I22">
-        <v>0.86508413030078901</v>
-      </c>
-      <c r="J22">
-        <v>0.85505837455334299</v>
-      </c>
-      <c r="K22">
-        <v>248.67150000000001</v>
-      </c>
-      <c r="L22">
-        <v>876.35919999999999</v>
-      </c>
-      <c r="M22">
-        <v>940.5018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>200000</v>
-      </c>
-      <c r="C23">
+      <c r="D24">
+        <v>0.01</v>
+      </c>
+      <c r="E24">
+        <v>2.68782155183915E-2</v>
+      </c>
+      <c r="F24">
+        <v>6.2132920198359802E-2</v>
+      </c>
+      <c r="G24">
+        <v>0.249620130643465</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.99998283820837996</v>
+      </c>
+      <c r="K24">
+        <v>221.6131</v>
+      </c>
+      <c r="L24">
+        <v>675.76559999999995</v>
+      </c>
+      <c r="M24">
+        <v>777.0992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>150000</v>
+      </c>
+      <c r="C25">
+        <v>1500</v>
+      </c>
+      <c r="D25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E25">
+        <v>1.42941950587103E-2</v>
+      </c>
+      <c r="F25">
+        <v>3.1468510327825598E-2</v>
+      </c>
+      <c r="G25">
+        <v>0.19508055554308901</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0.99998283820837996</v>
+      </c>
+      <c r="K25">
+        <v>221.6131</v>
+      </c>
+      <c r="L25">
+        <v>675.76559999999995</v>
+      </c>
+      <c r="M25">
+        <v>777.0992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>150000</v>
+      </c>
+      <c r="C26">
         <v>2000</v>
       </c>
-      <c r="D23">
-        <v>0.01</v>
-      </c>
-      <c r="E23">
-        <v>3.0227175665435899E-2</v>
-      </c>
-      <c r="F23">
-        <v>3.72849202878121E-2</v>
-      </c>
-      <c r="G23">
-        <v>0.15582787012344201</v>
-      </c>
-      <c r="H23">
-        <v>0.90609251450594297</v>
-      </c>
-      <c r="I23">
-        <v>0.90416728703981297</v>
-      </c>
-      <c r="J23">
-        <v>0.88605791102556497</v>
-      </c>
-      <c r="K23">
-        <v>258.72000000000003</v>
-      </c>
-      <c r="L23">
-        <v>745.98490000000004</v>
-      </c>
-      <c r="M23">
-        <v>886.35760000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>200000</v>
-      </c>
-      <c r="C24">
+      <c r="D26">
+        <v>0.01</v>
+      </c>
+      <c r="E26">
+        <v>3.0022511867141301E-2</v>
+      </c>
+      <c r="F26">
+        <v>4.6300829939816601E-2</v>
+      </c>
+      <c r="G26">
+        <v>0.48977895840207197</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0.99997516141447995</v>
+      </c>
+      <c r="K26">
+        <v>318.84620000000001</v>
+      </c>
+      <c r="L26">
+        <v>433.15109999999999</v>
+      </c>
+      <c r="M26">
+        <v>601.6001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>150000</v>
+      </c>
+      <c r="C27">
         <v>2000</v>
       </c>
-      <c r="D24">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E24">
-        <v>1.6255916735540402E-2</v>
-      </c>
-      <c r="F24">
-        <v>1.8277128650845301E-2</v>
-      </c>
-      <c r="G24">
-        <v>0.13461537418265301</v>
-      </c>
-      <c r="H24">
-        <v>0.90609251450594297</v>
-      </c>
-      <c r="I24">
-        <v>0.90416728703981297</v>
-      </c>
-      <c r="J24">
-        <v>0.88605791102556497</v>
-      </c>
-      <c r="K24">
-        <v>258.72000000000003</v>
-      </c>
-      <c r="L24">
-        <v>745.98490000000004</v>
-      </c>
-      <c r="M24">
-        <v>886.35760000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>200000</v>
-      </c>
-      <c r="C25">
+      <c r="D27">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E27">
+        <v>1.4539807282566999E-2</v>
+      </c>
+      <c r="F27">
+        <v>2.3325409562540599E-2</v>
+      </c>
+      <c r="G27">
+        <v>0.15859953910997099</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0.99997516141447995</v>
+      </c>
+      <c r="K27">
+        <v>318.84620000000001</v>
+      </c>
+      <c r="L27">
+        <v>433.15109999999999</v>
+      </c>
+      <c r="M27">
+        <v>601.6001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>150000</v>
+      </c>
+      <c r="C28">
         <v>2500</v>
       </c>
-      <c r="D25">
-        <v>0.01</v>
-      </c>
-      <c r="E25">
-        <v>2.52363041126187E-2</v>
-      </c>
-      <c r="F25">
-        <v>2.2917636620669701E-2</v>
-      </c>
-      <c r="G25">
-        <v>0.19164413317610099</v>
-      </c>
-      <c r="H25">
-        <v>0.92020317565154996</v>
-      </c>
-      <c r="I25">
-        <v>0.93461556477851304</v>
-      </c>
-      <c r="J25">
-        <v>0.91239325616200095</v>
-      </c>
-      <c r="K25">
-        <v>263.70240000000001</v>
-      </c>
-      <c r="L25">
-        <v>664.77689999999996</v>
-      </c>
-      <c r="M25">
-        <v>793.08150000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>200000</v>
-      </c>
-      <c r="C26">
+      <c r="D28">
+        <v>0.01</v>
+      </c>
+      <c r="E28">
+        <v>3.25191961562971E-2</v>
+      </c>
+      <c r="F28">
+        <v>4.0133197801907897E-2</v>
+      </c>
+      <c r="G28">
+        <v>0.137863712433971</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0.99995453658964994</v>
+      </c>
+      <c r="K28">
+        <v>216.57589999999999</v>
+      </c>
+      <c r="L28">
+        <v>410.09160000000003</v>
+      </c>
+      <c r="M28">
+        <v>564.50059999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>150000</v>
+      </c>
+      <c r="C29">
         <v>2500</v>
       </c>
-      <c r="D26">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E26">
-        <v>1.1833990779897399E-2</v>
-      </c>
-      <c r="F26">
-        <v>1.13514577759809E-2</v>
-      </c>
-      <c r="G26">
-        <v>7.0308326984411904E-2</v>
-      </c>
-      <c r="H26">
-        <v>0.92020317565154996</v>
-      </c>
-      <c r="I26">
-        <v>0.93461556477851304</v>
-      </c>
-      <c r="J26">
-        <v>0.91239325616200095</v>
-      </c>
-      <c r="K26">
-        <v>263.70240000000001</v>
-      </c>
-      <c r="L26">
-        <v>664.77689999999996</v>
-      </c>
-      <c r="M26">
-        <v>793.08150000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>200000</v>
-      </c>
-      <c r="C27">
+      <c r="D29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E29">
+        <v>1.5682135854798801E-2</v>
+      </c>
+      <c r="F29">
+        <v>2.0145219045602802E-2</v>
+      </c>
+      <c r="G29">
+        <v>0.13236275827669899</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0.99995453658964994</v>
+      </c>
+      <c r="K29">
+        <v>216.57589999999999</v>
+      </c>
+      <c r="L29">
+        <v>410.09160000000003</v>
+      </c>
+      <c r="M29">
+        <v>564.50059999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>150000</v>
+      </c>
+      <c r="C30">
         <v>3000</v>
       </c>
-      <c r="D27">
-        <v>0.01</v>
-      </c>
-      <c r="E27">
-        <v>2.2619564006022701E-2</v>
-      </c>
-      <c r="F27">
-        <v>1.3423135451126E-2</v>
-      </c>
-      <c r="G27">
-        <v>0.214343716655266</v>
-      </c>
-      <c r="H27">
-        <v>0.92913594379262499</v>
-      </c>
-      <c r="I27">
-        <v>0.94794999157013804</v>
-      </c>
-      <c r="J27">
-        <v>0.93058097997886302</v>
-      </c>
-      <c r="K27">
-        <v>262.69889999999998</v>
-      </c>
-      <c r="L27">
-        <v>577.5376</v>
-      </c>
-      <c r="M27">
-        <v>724.95630000000006</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>200000</v>
-      </c>
-      <c r="C28">
+      <c r="D30">
+        <v>0.01</v>
+      </c>
+      <c r="E30">
+        <v>3.2804557522868198E-2</v>
+      </c>
+      <c r="F30">
+        <v>3.78676202954056E-2</v>
+      </c>
+      <c r="G30">
+        <v>0.20422146302209099</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0.99997751046497996</v>
+      </c>
+      <c r="K30">
+        <v>256.6816</v>
+      </c>
+      <c r="L30">
+        <v>325.8895</v>
+      </c>
+      <c r="M30">
+        <v>433.14409999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>150000</v>
+      </c>
+      <c r="C31">
         <v>3000</v>
       </c>
-      <c r="D28">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E28">
-        <v>1.1332317552948201E-2</v>
-      </c>
-      <c r="F28">
-        <v>6.9020223699718698E-3</v>
-      </c>
-      <c r="G28">
-        <v>0.19103070718447601</v>
-      </c>
-      <c r="H28">
-        <v>0.92913594379262499</v>
-      </c>
-      <c r="I28">
-        <v>0.94794999157013804</v>
-      </c>
-      <c r="J28">
-        <v>0.93058097997886302</v>
-      </c>
-      <c r="K28">
-        <v>262.69889999999998</v>
-      </c>
-      <c r="L28">
-        <v>577.5376</v>
-      </c>
-      <c r="M28">
-        <v>724.95630000000006</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>250000</v>
-      </c>
-      <c r="C29">
-        <v>1000</v>
-      </c>
-      <c r="D29">
-        <v>0.01</v>
-      </c>
-      <c r="E29">
-        <v>4.86435799820885E-2</v>
-      </c>
-      <c r="F29">
-        <v>0.13414603617696899</v>
-      </c>
-      <c r="G29">
-        <v>0.59655880007182305</v>
-      </c>
-      <c r="H29">
-        <v>0.83363509054436402</v>
-      </c>
-      <c r="I29">
-        <v>0.80797025532119904</v>
-      </c>
-      <c r="J29">
-        <v>0.80026712215971396</v>
-      </c>
-      <c r="K29">
-        <v>304.77929999999998</v>
-      </c>
-      <c r="L29">
-        <v>1059.8277</v>
-      </c>
-      <c r="M29">
-        <v>1046.7918999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>250000</v>
-      </c>
-      <c r="C30">
-        <v>1000</v>
-      </c>
-      <c r="D30">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E30">
-        <v>2.4967578818087699E-2</v>
-      </c>
-      <c r="F30">
-        <v>6.7514613364707599E-2</v>
-      </c>
-      <c r="G30">
-        <v>0.31695573117904602</v>
-      </c>
-      <c r="H30">
-        <v>0.83363509054436402</v>
-      </c>
-      <c r="I30">
-        <v>0.80797025532119904</v>
-      </c>
-      <c r="J30">
-        <v>0.80026712215971396</v>
-      </c>
-      <c r="K30">
-        <v>304.77929999999998</v>
-      </c>
-      <c r="L30">
-        <v>1059.8277</v>
-      </c>
-      <c r="M30">
-        <v>1046.7918999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <v>250000</v>
-      </c>
-      <c r="C31">
-        <v>1500</v>
-      </c>
       <c r="D31">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E31">
-        <v>3.7378402592521801E-2</v>
+        <v>1.65332129881893E-2</v>
       </c>
       <c r="F31">
-        <v>8.07916795527404E-2</v>
+        <v>1.8887414804911001E-2</v>
       </c>
       <c r="G31">
-        <v>0.93739358014960505</v>
+        <v>6.08342498671837E-2</v>
       </c>
       <c r="H31">
-        <v>0.86609431761370503</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>0.84025451972190501</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>0.83218694178591801</v>
+        <v>0.99997751046497996</v>
       </c>
       <c r="K31">
-        <v>300.76760000000002</v>
+        <v>256.6816</v>
       </c>
       <c r="L31">
-        <v>1071.8812</v>
+        <v>325.8895</v>
       </c>
       <c r="M31">
-        <v>1137.0253</v>
+        <v>433.14409999999998</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
@@ -4558,409 +4519,409 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="C32">
+        <v>1000</v>
+      </c>
+      <c r="D32">
+        <v>0.01</v>
+      </c>
+      <c r="E32">
+        <v>2.93734141823081E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.121041972258039</v>
+      </c>
+      <c r="G32">
+        <v>0.79369725091089305</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0.99998691860048405</v>
+      </c>
+      <c r="K32">
+        <v>265.70729999999998</v>
+      </c>
+      <c r="L32">
+        <v>783.07960000000003</v>
+      </c>
+      <c r="M32">
+        <v>953.50519999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>200000</v>
+      </c>
+      <c r="C33">
+        <v>1000</v>
+      </c>
+      <c r="D33">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E33">
+        <v>1.56555348812774E-2</v>
+      </c>
+      <c r="F33">
+        <v>6.0996789533329598E-2</v>
+      </c>
+      <c r="G33">
+        <v>0.25258186671322502</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0.99998691860048405</v>
+      </c>
+      <c r="K33">
+        <v>265.70729999999998</v>
+      </c>
+      <c r="L33">
+        <v>783.07960000000003</v>
+      </c>
+      <c r="M33">
+        <v>953.50519999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>200000</v>
+      </c>
+      <c r="C34">
         <v>1500</v>
       </c>
-      <c r="D32">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E32">
-        <v>1.8629848151704698E-2</v>
-      </c>
-      <c r="F32">
-        <v>4.00200009509123E-2</v>
-      </c>
-      <c r="G32">
-        <v>0.22587733202847499</v>
-      </c>
-      <c r="H32">
-        <v>0.86609431761370503</v>
-      </c>
-      <c r="I32">
-        <v>0.84025451972190501</v>
-      </c>
-      <c r="J32">
-        <v>0.83218694178591801</v>
-      </c>
-      <c r="K32">
-        <v>300.76760000000002</v>
-      </c>
-      <c r="L32">
-        <v>1071.8812</v>
-      </c>
-      <c r="M32">
-        <v>1137.0253</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33">
-        <v>250000</v>
-      </c>
-      <c r="C33">
+      <c r="D34">
+        <v>0.01</v>
+      </c>
+      <c r="E34">
+        <v>2.9715188795312202E-2</v>
+      </c>
+      <c r="F34">
+        <v>8.1809346357583898E-2</v>
+      </c>
+      <c r="G34">
+        <v>0.338275520303223</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0.99997497418242198</v>
+      </c>
+      <c r="K34">
+        <v>263.70100000000002</v>
+      </c>
+      <c r="L34">
+        <v>751.99549999999999</v>
+      </c>
+      <c r="M34">
+        <v>929.50379999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>200000</v>
+      </c>
+      <c r="C35">
+        <v>1500</v>
+      </c>
+      <c r="D35">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E35">
+        <v>1.43186565586765E-2</v>
+      </c>
+      <c r="F35">
+        <v>4.1390936674505899E-2</v>
+      </c>
+      <c r="G35">
+        <v>7.0980141424423396E-2</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0.99997497418242198</v>
+      </c>
+      <c r="K35">
+        <v>263.70100000000002</v>
+      </c>
+      <c r="L35">
+        <v>751.99549999999999</v>
+      </c>
+      <c r="M35">
+        <v>929.50379999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>200000</v>
+      </c>
+      <c r="C36">
         <v>2000</v>
       </c>
-      <c r="D33">
-        <v>0.01</v>
-      </c>
-      <c r="E33">
-        <v>3.03739652356202E-2</v>
-      </c>
-      <c r="F33">
-        <v>5.1857191134703197E-2</v>
-      </c>
-      <c r="G33">
-        <v>0.19215930209837701</v>
-      </c>
-      <c r="H33">
-        <v>0.88896413159822496</v>
-      </c>
-      <c r="I33">
-        <v>0.87207158944062502</v>
-      </c>
-      <c r="J33">
-        <v>0.86034989892036995</v>
-      </c>
-      <c r="K33">
-        <v>326.86810000000003</v>
-      </c>
-      <c r="L33">
-        <v>1115.9947999999999</v>
-      </c>
-      <c r="M33">
-        <v>1182.1451</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34">
-        <v>250000</v>
-      </c>
-      <c r="C34">
+      <c r="D36">
+        <v>0.01</v>
+      </c>
+      <c r="E36">
+        <v>2.7557955963577699E-2</v>
+      </c>
+      <c r="F36">
+        <v>6.11927541134131E-2</v>
+      </c>
+      <c r="G36">
+        <v>0.23627618124899399</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0.99998838567332704</v>
+      </c>
+      <c r="K36">
+        <v>321.8519</v>
+      </c>
+      <c r="L36">
+        <v>769.04830000000004</v>
+      </c>
+      <c r="M36">
+        <v>859.25720000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>200000</v>
+      </c>
+      <c r="C37">
         <v>2000</v>
       </c>
-      <c r="D34">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E34">
-        <v>1.49086854404934E-2</v>
-      </c>
-      <c r="F34">
-        <v>2.6804354309093802E-2</v>
-      </c>
-      <c r="G34">
-        <v>0.16484702505830301</v>
-      </c>
-      <c r="H34">
-        <v>0.88896413159822496</v>
-      </c>
-      <c r="I34">
-        <v>0.87207158944062502</v>
-      </c>
-      <c r="J34">
-        <v>0.86034989892036995</v>
-      </c>
-      <c r="K34">
-        <v>326.86810000000003</v>
-      </c>
-      <c r="L34">
-        <v>1115.9947999999999</v>
-      </c>
-      <c r="M34">
-        <v>1182.1451</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35">
-        <v>250000</v>
-      </c>
-      <c r="C35">
+      <c r="D37">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E37">
+        <v>1.3804050676182599E-2</v>
+      </c>
+      <c r="F37">
+        <v>3.0859628792490299E-2</v>
+      </c>
+      <c r="G37">
+        <v>0.23751271572826599</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0.99998838567332704</v>
+      </c>
+      <c r="K37">
+        <v>321.8519</v>
+      </c>
+      <c r="L37">
+        <v>769.04830000000004</v>
+      </c>
+      <c r="M37">
+        <v>859.25720000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>200000</v>
+      </c>
+      <c r="C38">
         <v>2500</v>
       </c>
-      <c r="D35">
-        <v>0.01</v>
-      </c>
-      <c r="E35">
-        <v>2.85744599932823E-2</v>
-      </c>
-      <c r="F35">
-        <v>3.6452504891878498E-2</v>
-      </c>
-      <c r="G35">
-        <v>0.35559558331112001</v>
-      </c>
-      <c r="H35">
-        <v>0.90553020327320599</v>
-      </c>
-      <c r="I35">
-        <v>0.90338820678474097</v>
-      </c>
-      <c r="J35">
-        <v>0.885176781245398</v>
-      </c>
-      <c r="K35">
-        <v>320.85270000000003</v>
-      </c>
-      <c r="L35">
-        <v>1056.8227999999999</v>
-      </c>
-      <c r="M35">
-        <v>1162.1143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36">
-        <v>250000</v>
-      </c>
-      <c r="C36">
+      <c r="D38">
+        <v>0.01</v>
+      </c>
+      <c r="E38">
+        <v>2.85613037935817E-2</v>
+      </c>
+      <c r="F38">
+        <v>4.7955560377486502E-2</v>
+      </c>
+      <c r="G38">
+        <v>0.28077429249806402</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0.99997401447226997</v>
+      </c>
+      <c r="K38">
+        <v>289.80599999999998</v>
+      </c>
+      <c r="L38">
+        <v>626.66560000000004</v>
+      </c>
+      <c r="M38">
+        <v>811.18600000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>200000</v>
+      </c>
+      <c r="C39">
         <v>2500</v>
       </c>
-      <c r="D36">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E36">
-        <v>1.46208162379477E-2</v>
-      </c>
-      <c r="F36">
-        <v>1.8075811065463101E-2</v>
-      </c>
-      <c r="G36">
-        <v>0.29864230199830899</v>
-      </c>
-      <c r="H36">
-        <v>0.90553020327320599</v>
-      </c>
-      <c r="I36">
-        <v>0.90338820678474097</v>
-      </c>
-      <c r="J36">
-        <v>0.885176781245398</v>
-      </c>
-      <c r="K36">
-        <v>320.85270000000003</v>
-      </c>
-      <c r="L36">
-        <v>1056.8227999999999</v>
-      </c>
-      <c r="M36">
-        <v>1162.1143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37">
-        <v>250000</v>
-      </c>
-      <c r="C37">
+      <c r="D39">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E39">
+        <v>1.4720683291085701E-2</v>
+      </c>
+      <c r="F39">
+        <v>2.38994214022859E-2</v>
+      </c>
+      <c r="G39">
+        <v>0.280281465166898</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0.99997401447226997</v>
+      </c>
+      <c r="K39">
+        <v>289.80599999999998</v>
+      </c>
+      <c r="L39">
+        <v>626.66560000000004</v>
+      </c>
+      <c r="M39">
+        <v>811.18600000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>200000</v>
+      </c>
+      <c r="C40">
         <v>3000</v>
       </c>
-      <c r="D37">
-        <v>0.01</v>
-      </c>
-      <c r="E37">
-        <v>2.5601944547594801E-2</v>
-      </c>
-      <c r="F37">
-        <v>2.5172811075319101E-2</v>
-      </c>
-      <c r="G37">
-        <v>0.332131223510021</v>
-      </c>
-      <c r="H37">
-        <v>0.91719792150658197</v>
-      </c>
-      <c r="I37">
-        <v>0.92967705252624799</v>
-      </c>
-      <c r="J37">
-        <v>0.90734575392168004</v>
-      </c>
-      <c r="K37">
-        <v>344.9357</v>
-      </c>
-      <c r="L37">
-        <v>928.47040000000004</v>
-      </c>
-      <c r="M37">
-        <v>1025.7001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38">
-        <v>250000</v>
-      </c>
-      <c r="C38">
+      <c r="D40">
+        <v>0.01</v>
+      </c>
+      <c r="E40">
+        <v>3.1786549604429698E-2</v>
+      </c>
+      <c r="F40">
+        <v>4.2005403206399901E-2</v>
+      </c>
+      <c r="G40">
+        <v>0.185364514608921</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0.99998236456186795</v>
+      </c>
+      <c r="K40">
+        <v>304.78300000000002</v>
+      </c>
+      <c r="L40">
+        <v>530.44140000000004</v>
+      </c>
+      <c r="M40">
+        <v>738.96119999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>200000</v>
+      </c>
+      <c r="C41">
         <v>3000</v>
       </c>
-      <c r="D38">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E38">
-        <v>1.2391596904789399E-2</v>
-      </c>
-      <c r="F38">
-        <v>1.24577512935792E-2</v>
-      </c>
-      <c r="G38">
-        <v>0.28804210654608697</v>
-      </c>
-      <c r="H38">
-        <v>0.91719792150658197</v>
-      </c>
-      <c r="I38">
-        <v>0.92967705252624799</v>
-      </c>
-      <c r="J38">
-        <v>0.90734575392168004</v>
-      </c>
-      <c r="K38">
-        <v>344.9357</v>
-      </c>
-      <c r="L38">
-        <v>928.47040000000004</v>
-      </c>
-      <c r="M38">
-        <v>1025.7001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39">
-        <v>300000</v>
-      </c>
-      <c r="C39">
-        <v>1000</v>
-      </c>
-      <c r="D39">
-        <v>0.01</v>
-      </c>
-      <c r="E39">
-        <v>5.0748851094827199E-2</v>
-      </c>
-      <c r="F39">
-        <v>0.165760005755546</v>
-      </c>
-      <c r="G39">
-        <v>1.60794771622771</v>
-      </c>
-      <c r="H39">
-        <v>0.81920871968558895</v>
-      </c>
-      <c r="I39">
-        <v>0.79646352524443897</v>
-      </c>
-      <c r="J39">
-        <v>0.78819913219174598</v>
-      </c>
-      <c r="K39">
-        <v>341.88650000000001</v>
-      </c>
-      <c r="L39">
-        <v>1338.5617</v>
-      </c>
-      <c r="M39">
-        <v>1213.2273</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40">
-        <v>300000</v>
-      </c>
-      <c r="C40">
-        <v>1000</v>
-      </c>
-      <c r="D40">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E40">
-        <v>2.60984924169189E-2</v>
-      </c>
-      <c r="F40">
-        <v>8.2706334436233805E-2</v>
-      </c>
-      <c r="G40">
-        <v>0.532091305821487</v>
-      </c>
-      <c r="H40">
-        <v>0.81920871968558895</v>
-      </c>
-      <c r="I40">
-        <v>0.79646352524443897</v>
-      </c>
-      <c r="J40">
-        <v>0.78819913219174598</v>
-      </c>
-      <c r="K40">
-        <v>341.88650000000001</v>
-      </c>
-      <c r="L40">
-        <v>1338.5617</v>
-      </c>
-      <c r="M40">
-        <v>1213.2273</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41">
-        <v>300000</v>
-      </c>
-      <c r="C41">
-        <v>1500</v>
-      </c>
       <c r="D41">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E41">
-        <v>4.07765396806644E-2</v>
+        <v>1.5545765032084E-2</v>
       </c>
       <c r="F41">
-        <v>0.10218478417566</v>
+        <v>2.11321628344594E-2</v>
       </c>
       <c r="G41">
-        <v>0.94292006841037401</v>
+        <v>0.19424163386902801</v>
       </c>
       <c r="H41">
-        <v>0.85092079542594701</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>0.82361292026765598</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>0.81646501405841998</v>
+        <v>0.99998236456186795</v>
       </c>
       <c r="K41">
-        <v>354.97300000000001</v>
+        <v>304.78300000000002</v>
       </c>
       <c r="L41">
-        <v>1332.5373</v>
+        <v>530.44140000000004</v>
       </c>
       <c r="M41">
-        <v>1335.5516</v>
+        <v>738.96119999999996</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
@@ -4968,289 +4929,834 @@
         <v>0</v>
       </c>
       <c r="B42">
+        <v>250000</v>
+      </c>
+      <c r="C42">
+        <v>1000</v>
+      </c>
+      <c r="D42">
+        <v>0.01</v>
+      </c>
+      <c r="E42">
+        <v>3.1333399753547403E-2</v>
+      </c>
+      <c r="F42">
+        <v>0.150365681279226</v>
+      </c>
+      <c r="G42">
+        <v>0.81820941151548998</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0.99999214885827803</v>
+      </c>
+      <c r="K42">
+        <v>319.8272</v>
+      </c>
+      <c r="L42">
+        <v>1161.0643</v>
+      </c>
+      <c r="M42">
+        <v>1084.9076</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>250000</v>
+      </c>
+      <c r="C43">
+        <v>1000</v>
+      </c>
+      <c r="D43">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E43">
+        <v>1.7372029962731701E-2</v>
+      </c>
+      <c r="F43">
+        <v>7.4732863054376E-2</v>
+      </c>
+      <c r="G43">
+        <v>0.32430878679256397</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0.99999214885827803</v>
+      </c>
+      <c r="K43">
+        <v>319.8272</v>
+      </c>
+      <c r="L43">
+        <v>1161.0643</v>
+      </c>
+      <c r="M43">
+        <v>1084.9076</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>250000</v>
+      </c>
+      <c r="C44">
+        <v>1500</v>
+      </c>
+      <c r="D44">
+        <v>0.01</v>
+      </c>
+      <c r="E44">
+        <v>2.9879490926780002E-2</v>
+      </c>
+      <c r="F44">
+        <v>0.101504892168681</v>
+      </c>
+      <c r="G44">
+        <v>1.05087195514617</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0.99998441107265101</v>
+      </c>
+      <c r="K44">
+        <v>341.87889999999999</v>
+      </c>
+      <c r="L44">
+        <v>984.64610000000005</v>
+      </c>
+      <c r="M44">
+        <v>1143.0398</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>250000</v>
+      </c>
+      <c r="C45">
+        <v>1500</v>
+      </c>
+      <c r="D45">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E45">
+        <v>1.4126231048931801E-2</v>
+      </c>
+      <c r="F45">
+        <v>5.1139823316525897E-2</v>
+      </c>
+      <c r="G45">
+        <v>0.36129909280942601</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0.99998441107265101</v>
+      </c>
+      <c r="K45">
+        <v>341.87889999999999</v>
+      </c>
+      <c r="L45">
+        <v>984.64610000000005</v>
+      </c>
+      <c r="M45">
+        <v>1143.0398</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>250000</v>
+      </c>
+      <c r="C46">
+        <v>2000</v>
+      </c>
+      <c r="D46">
+        <v>0.01</v>
+      </c>
+      <c r="E46">
+        <v>2.66915409754124E-2</v>
+      </c>
+      <c r="F46">
+        <v>7.6476096756492695E-2</v>
+      </c>
+      <c r="G46">
+        <v>0.34818439834227399</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0.99999428290998305</v>
+      </c>
+      <c r="K46">
+        <v>385.02319999999997</v>
+      </c>
+      <c r="L46">
+        <v>972.61630000000002</v>
+      </c>
+      <c r="M46">
+        <v>1171.1143999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>250000</v>
+      </c>
+      <c r="C47">
+        <v>2000</v>
+      </c>
+      <c r="D47">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E47">
+        <v>1.3091837941185701E-2</v>
+      </c>
+      <c r="F47">
+        <v>3.8565217820209302E-2</v>
+      </c>
+      <c r="G47">
+        <v>0.10517181300968199</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0.99999428290998305</v>
+      </c>
+      <c r="K47">
+        <v>385.02319999999997</v>
+      </c>
+      <c r="L47">
+        <v>972.61630000000002</v>
+      </c>
+      <c r="M47">
+        <v>1171.1143999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>250000</v>
+      </c>
+      <c r="C48">
+        <v>2500</v>
+      </c>
+      <c r="D48">
+        <v>0.01</v>
+      </c>
+      <c r="E48">
+        <v>2.8537990420506299E-2</v>
+      </c>
+      <c r="F48">
+        <v>6.05077532195522E-2</v>
+      </c>
+      <c r="G48">
+        <v>0.37478947680408597</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0.99998024646828498</v>
+      </c>
+      <c r="K48">
+        <v>357.9511</v>
+      </c>
+      <c r="L48">
+        <v>894.37660000000005</v>
+      </c>
+      <c r="M48">
+        <v>1137.0558000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>250000</v>
+      </c>
+      <c r="C49">
+        <v>2500</v>
+      </c>
+      <c r="D49">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E49">
+        <v>1.3820140303476201E-2</v>
+      </c>
+      <c r="F49">
+        <v>2.98912714489479E-2</v>
+      </c>
+      <c r="G49">
+        <v>7.8475457123615602E-2</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0.99998024646828498</v>
+      </c>
+      <c r="K49">
+        <v>357.9511</v>
+      </c>
+      <c r="L49">
+        <v>894.37660000000005</v>
+      </c>
+      <c r="M49">
+        <v>1137.0558000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>250000</v>
+      </c>
+      <c r="C50">
+        <v>3000</v>
+      </c>
+      <c r="D50">
+        <v>0.01</v>
+      </c>
+      <c r="E50">
+        <v>2.9347451098289901E-2</v>
+      </c>
+      <c r="F50">
+        <v>5.0050838805023798E-2</v>
+      </c>
+      <c r="G50">
+        <v>0.28767388840396402</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0.999975229228942</v>
+      </c>
+      <c r="K50">
+        <v>409.09289999999999</v>
+      </c>
+      <c r="L50">
+        <v>866.27089999999998</v>
+      </c>
+      <c r="M50">
+        <v>1086.8400999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>250000</v>
+      </c>
+      <c r="C51">
+        <v>3000</v>
+      </c>
+      <c r="D51">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E51">
+        <v>1.4469530376398899E-2</v>
+      </c>
+      <c r="F51">
+        <v>2.488405021953E-2</v>
+      </c>
+      <c r="G51">
+        <v>9.0075774447447701E-2</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0.999975229228942</v>
+      </c>
+      <c r="K51">
+        <v>409.09289999999999</v>
+      </c>
+      <c r="L51">
+        <v>866.27089999999998</v>
+      </c>
+      <c r="M51">
+        <v>1086.8400999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
         <v>300000</v>
       </c>
-      <c r="C42">
+      <c r="C52">
+        <v>1000</v>
+      </c>
+      <c r="D52">
+        <v>0.01</v>
+      </c>
+      <c r="E52">
+        <v>3.49793375191505E-2</v>
+      </c>
+      <c r="F52">
+        <v>0.18125029762627501</v>
+      </c>
+      <c r="G52">
+        <v>1.5603259002901</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>419.1148</v>
+      </c>
+      <c r="L52">
+        <v>1422.8130000000001</v>
+      </c>
+      <c r="M52">
+        <v>1381.2188000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>300000</v>
+      </c>
+      <c r="C53">
+        <v>1000</v>
+      </c>
+      <c r="D53">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E53">
+        <v>1.6353874153758899E-2</v>
+      </c>
+      <c r="F53">
+        <v>9.07249176114545E-2</v>
+      </c>
+      <c r="G53">
+        <v>1.38535463298599</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>419.1148</v>
+      </c>
+      <c r="L53">
+        <v>1422.8130000000001</v>
+      </c>
+      <c r="M53">
+        <v>1381.2188000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>300000</v>
+      </c>
+      <c r="C54">
         <v>1500</v>
       </c>
-      <c r="D42">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E42">
-        <v>1.9051969236066699E-2</v>
-      </c>
-      <c r="F42">
-        <v>5.2070910301920001E-2</v>
-      </c>
-      <c r="G42">
-        <v>0.69673074654617695</v>
-      </c>
-      <c r="H42">
-        <v>0.85092079542594701</v>
-      </c>
-      <c r="I42">
-        <v>0.82361292026765598</v>
-      </c>
-      <c r="J42">
-        <v>0.81646501405841998</v>
-      </c>
-      <c r="K42">
-        <v>354.97300000000001</v>
-      </c>
-      <c r="L42">
-        <v>1332.5373</v>
-      </c>
-      <c r="M42">
-        <v>1335.5516</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43">
+      <c r="D54">
+        <v>0.01</v>
+      </c>
+      <c r="E54">
+        <v>2.8825589157666601E-2</v>
+      </c>
+      <c r="F54">
+        <v>0.122036623057062</v>
+      </c>
+      <c r="G54">
+        <v>0.54703766038665202</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0.999993640682173</v>
+      </c>
+      <c r="K54">
+        <v>404.09710000000001</v>
+      </c>
+      <c r="L54">
+        <v>1330.6668999999999</v>
+      </c>
+      <c r="M54">
+        <v>1472.0124000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55">
         <v>300000</v>
       </c>
-      <c r="C43">
+      <c r="C55">
+        <v>1500</v>
+      </c>
+      <c r="D55">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E55">
+        <v>1.50250172199293E-2</v>
+      </c>
+      <c r="F55">
+        <v>6.0933031663455199E-2</v>
+      </c>
+      <c r="G55">
+        <v>0.262394800395854</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0.999993640682173</v>
+      </c>
+      <c r="K55">
+        <v>404.09710000000001</v>
+      </c>
+      <c r="L55">
+        <v>1330.6668999999999</v>
+      </c>
+      <c r="M55">
+        <v>1472.0124000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>300000</v>
+      </c>
+      <c r="C56">
         <v>2000</v>
       </c>
-      <c r="D43">
-        <v>0.01</v>
-      </c>
-      <c r="E43">
-        <v>3.4908526615957697E-2</v>
-      </c>
-      <c r="F43">
-        <v>6.9247438297204103E-2</v>
-      </c>
-      <c r="G43">
-        <v>0.57170401284480499</v>
-      </c>
-      <c r="H43">
-        <v>0.87411254751189404</v>
-      </c>
-      <c r="I43">
-        <v>0.85041221897708796</v>
-      </c>
-      <c r="J43">
-        <v>0.84149271727460395</v>
-      </c>
-      <c r="K43">
-        <v>370.98770000000002</v>
-      </c>
-      <c r="L43">
-        <v>1323.501</v>
-      </c>
-      <c r="M43">
-        <v>1391.7349999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44">
+      <c r="D56">
+        <v>0.01</v>
+      </c>
+      <c r="E56">
+        <v>2.8277812009806599E-2</v>
+      </c>
+      <c r="F56">
+        <v>9.4864215779417796E-2</v>
+      </c>
+      <c r="G56">
+        <v>0.441107637199525</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0.999991988001389</v>
+      </c>
+      <c r="K56">
+        <v>447.11369999999999</v>
+      </c>
+      <c r="L56">
+        <v>1276.3939</v>
+      </c>
+      <c r="M56">
+        <v>1503.6522</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
         <v>300000</v>
       </c>
-      <c r="C44">
+      <c r="C57">
         <v>2000</v>
       </c>
-      <c r="D44">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E44">
-        <v>1.7720544403045001E-2</v>
-      </c>
-      <c r="F44">
-        <v>3.53233320618003E-2</v>
-      </c>
-      <c r="G44">
-        <v>0.168727858480575</v>
-      </c>
-      <c r="H44">
-        <v>0.87411254751189404</v>
-      </c>
-      <c r="I44">
-        <v>0.85041221897708796</v>
-      </c>
-      <c r="J44">
-        <v>0.84149271727460395</v>
-      </c>
-      <c r="K44">
-        <v>370.98770000000002</v>
-      </c>
-      <c r="L44">
-        <v>1323.501</v>
-      </c>
-      <c r="M44">
-        <v>1391.7349999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45">
+      <c r="D57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E57">
+        <v>1.32203677547722E-2</v>
+      </c>
+      <c r="F57">
+        <v>4.7222329183578798E-2</v>
+      </c>
+      <c r="G57">
+        <v>0.22948634014932001</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0.999991988001389</v>
+      </c>
+      <c r="K57">
+        <v>447.11369999999999</v>
+      </c>
+      <c r="L57">
+        <v>1276.3939</v>
+      </c>
+      <c r="M57">
+        <v>1503.6522</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
         <v>300000</v>
       </c>
-      <c r="C45">
+      <c r="C58">
         <v>2500</v>
       </c>
-      <c r="D45">
-        <v>0.01</v>
-      </c>
-      <c r="E45">
-        <v>3.1295523640017399E-2</v>
-      </c>
-      <c r="F45">
-        <v>4.8957760255338698E-2</v>
-      </c>
-      <c r="G45">
-        <v>0.41839809103598002</v>
-      </c>
-      <c r="H45">
-        <v>0.89217787751342204</v>
-      </c>
-      <c r="I45">
-        <v>0.876531771316722</v>
-      </c>
-      <c r="J45">
-        <v>0.86434154840148902</v>
-      </c>
-      <c r="K45">
-        <v>375.9948</v>
-      </c>
-      <c r="L45">
-        <v>1316.5029</v>
-      </c>
-      <c r="M45">
-        <v>1406.7351000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46">
+      <c r="D58">
+        <v>0.01</v>
+      </c>
+      <c r="E58">
+        <v>2.69529200734572E-2</v>
+      </c>
+      <c r="F58">
+        <v>7.48979960592841E-2</v>
+      </c>
+      <c r="G58">
+        <v>0.48198172766264202</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0.99997880776910597</v>
+      </c>
+      <c r="K58">
+        <v>442.6773</v>
+      </c>
+      <c r="L58">
+        <v>1247.3435999999999</v>
+      </c>
+      <c r="M58">
+        <v>1471.4674</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
         <v>300000</v>
       </c>
-      <c r="C46">
+      <c r="C59">
         <v>2500</v>
       </c>
-      <c r="D46">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E46">
-        <v>1.5984919978069501E-2</v>
-      </c>
-      <c r="F46">
-        <v>2.4482333028505301E-2</v>
-      </c>
-      <c r="G46">
-        <v>0.29565797947593597</v>
-      </c>
-      <c r="H46">
-        <v>0.89217787751342204</v>
-      </c>
-      <c r="I46">
-        <v>0.876531771316722</v>
-      </c>
-      <c r="J46">
-        <v>0.86434154840148902</v>
-      </c>
-      <c r="K46">
-        <v>375.9948</v>
-      </c>
-      <c r="L46">
-        <v>1316.5029</v>
-      </c>
-      <c r="M46">
-        <v>1406.7351000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47">
+      <c r="D59">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E59">
+        <v>1.38892152393743E-2</v>
+      </c>
+      <c r="F59">
+        <v>3.6799327128894298E-2</v>
+      </c>
+      <c r="G59">
+        <v>0.204367174063116</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0.99997880776910597</v>
+      </c>
+      <c r="K59">
+        <v>442.6773</v>
+      </c>
+      <c r="L59">
+        <v>1247.3435999999999</v>
+      </c>
+      <c r="M59">
+        <v>1471.4674</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
         <v>300000</v>
       </c>
-      <c r="C47">
+      <c r="C60">
         <v>3000</v>
       </c>
-      <c r="D47">
-        <v>0.01</v>
-      </c>
-      <c r="E47">
-        <v>2.74568848073194E-2</v>
-      </c>
-      <c r="F47">
-        <v>3.6936131023417897E-2</v>
-      </c>
-      <c r="G47">
-        <v>0.31848368658878001</v>
-      </c>
-      <c r="H47">
-        <v>0.90519033178609398</v>
-      </c>
-      <c r="I47">
-        <v>0.90307490862612305</v>
-      </c>
-      <c r="J47">
-        <v>0.88494558567066905</v>
-      </c>
-      <c r="K47">
-        <v>379.97629999999998</v>
-      </c>
-      <c r="L47">
-        <v>1222.2521999999999</v>
-      </c>
-      <c r="M47">
-        <v>1342.5717</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48">
+      <c r="D60">
+        <v>0.01</v>
+      </c>
+      <c r="E60">
+        <v>2.7887151240276201E-2</v>
+      </c>
+      <c r="F60">
+        <v>6.0307209835758602E-2</v>
+      </c>
+      <c r="G60">
+        <v>0.33146210937521697</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0.99998498574540196</v>
+      </c>
+      <c r="K60">
+        <v>458.17720000000003</v>
+      </c>
+      <c r="L60">
+        <v>1171.6156000000001</v>
+      </c>
+      <c r="M60">
+        <v>1422.316</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
         <v>300000</v>
       </c>
-      <c r="C48">
+      <c r="C61">
         <v>3000</v>
       </c>
-      <c r="D48">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E48">
-        <v>1.43233583028998E-2</v>
-      </c>
-      <c r="F48">
-        <v>1.86432563219797E-2</v>
-      </c>
-      <c r="G48">
-        <v>0.117862324222565</v>
-      </c>
-      <c r="H48">
-        <v>0.90519033178609398</v>
-      </c>
-      <c r="I48">
-        <v>0.90307490862612305</v>
-      </c>
-      <c r="J48">
-        <v>0.88494558567066905</v>
-      </c>
-      <c r="K48">
-        <v>379.97629999999998</v>
-      </c>
-      <c r="L48">
-        <v>1222.2521999999999</v>
-      </c>
-      <c r="M48">
-        <v>1342.5717</v>
+      <c r="D61">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E61">
+        <v>1.4184474322386899E-2</v>
+      </c>
+      <c r="F61">
+        <v>3.0292526070093601E-2</v>
+      </c>
+      <c r="G61">
+        <v>0.147868729310841</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0.99998498574540196</v>
+      </c>
+      <c r="K61">
+        <v>458.17720000000003</v>
+      </c>
+      <c r="L61">
+        <v>1171.6156000000001</v>
+      </c>
+      <c r="M61">
+        <v>1422.316</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M61">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1000"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="0.01"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
